--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_20_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135704.9964193808</v>
+        <v>-136413.8905749148</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2852922.957540478</v>
+        <v>2852922.957540474</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681862</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>140.1052396285067</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>177.946761602919</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>152.3846663756061</v>
+        <v>152.3846663756063</v>
       </c>
       <c r="I11" t="n">
-        <v>3.805278148539323</v>
+        <v>3.805278148539525</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.16601143930073</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>40.44929435618587</v>
+        <v>40.44929435618606</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.33901554432791</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>170.435619342891</v>
       </c>
       <c r="X11" t="n">
-        <v>190.7671014735056</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>116.1791966845412</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.31402067538701</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>76.32009000103538</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>17.09514616855554</v>
+        <v>197.1896438262193</v>
       </c>
       <c r="U12" t="n">
-        <v>44.54320898382394</v>
+        <v>44.54320898382414</v>
       </c>
       <c r="V12" t="n">
-        <v>51.81423338199139</v>
+        <v>132.8090411671031</v>
       </c>
       <c r="W12" t="n">
-        <v>69.8948490923363</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="X12" t="n">
-        <v>24.36713195081452</v>
+        <v>24.36713195081472</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.57665376092228</v>
+        <v>23.57665376092248</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>37.93894269628092</v>
+        <v>37.93894269628112</v>
       </c>
       <c r="T13" t="n">
-        <v>47.17784089226093</v>
+        <v>47.17784089226113</v>
       </c>
       <c r="U13" t="n">
-        <v>105.944239191593</v>
+        <v>105.9442391915932</v>
       </c>
       <c r="V13" t="n">
-        <v>72.84185340927542</v>
+        <v>72.84185340927561</v>
       </c>
       <c r="W13" t="n">
-        <v>105.9980792297518</v>
+        <v>105.998079229752</v>
       </c>
       <c r="X13" t="n">
-        <v>46.04586227464551</v>
+        <v>46.04586227464571</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.65417621010448</v>
+        <v>38.65417621010468</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="C14" t="n">
-        <v>186.8905980212789</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>176.5102350969347</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="G14" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>152.3846663756062</v>
       </c>
       <c r="I14" t="n">
-        <v>3.805278148539323</v>
+        <v>3.805278148539468</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.49409300820647</v>
+        <v>13.16601143930089</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.525339190415847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
     </row>
     <row r="15">
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>75.70397777229292</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>17.09514616855554</v>
+        <v>197.1896438262193</v>
       </c>
       <c r="U15" t="n">
-        <v>44.54320898382394</v>
+        <v>98.11870915541985</v>
       </c>
       <c r="V15" t="n">
-        <v>51.81423338199139</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="W15" t="n">
-        <v>69.8948490923363</v>
+        <v>69.89484909233644</v>
       </c>
       <c r="X15" t="n">
-        <v>24.36713195081452</v>
+        <v>24.36713195081467</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.57665376092228</v>
+        <v>23.57665376092243</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>37.93894269628092</v>
+        <v>37.93894269628106</v>
       </c>
       <c r="T16" t="n">
-        <v>47.17784089226093</v>
+        <v>47.17784089226107</v>
       </c>
       <c r="U16" t="n">
-        <v>105.944239191593</v>
+        <v>105.9442391915932</v>
       </c>
       <c r="V16" t="n">
-        <v>72.84185340927542</v>
+        <v>72.84185340927556</v>
       </c>
       <c r="W16" t="n">
-        <v>105.9980792297518</v>
+        <v>105.9980792297519</v>
       </c>
       <c r="X16" t="n">
-        <v>46.04586227464551</v>
+        <v>46.04586227464566</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.65417621010448</v>
+        <v>38.65417621010462</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83.55523505464237</v>
+        <v>83.55523505464259</v>
       </c>
       <c r="C17" t="n">
-        <v>66.82392074218996</v>
+        <v>66.82392074219018</v>
       </c>
       <c r="D17" t="n">
-        <v>56.44355781784571</v>
+        <v>56.44355781784594</v>
       </c>
       <c r="E17" t="n">
-        <v>82.95686081853478</v>
+        <v>82.95686081853501</v>
       </c>
       <c r="F17" t="n">
-        <v>107.1326885437882</v>
+        <v>107.1326885437884</v>
       </c>
       <c r="G17" t="n">
-        <v>114.1404607851661</v>
+        <v>114.1404607851663</v>
       </c>
       <c r="H17" t="n">
-        <v>32.31798909651718</v>
+        <v>32.31798909651741</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>28.37204658576667</v>
+        <v>28.3720465857669</v>
       </c>
       <c r="W17" t="n">
-        <v>50.36894206380191</v>
+        <v>50.36894206380214</v>
       </c>
       <c r="X17" t="n">
-        <v>70.70042419441671</v>
+        <v>70.70042419441694</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.52589681448313</v>
+        <v>86.52589681448336</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.31402067538701</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>76.32009000103538</v>
       </c>
       <c r="S18" t="n">
-        <v>81.55986151498753</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>37.28723199395416</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>71.29711915503223</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>167.1356551980327</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.6828209908989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>83.55523505464242</v>
+        <v>83.55523505464259</v>
       </c>
       <c r="C20" t="n">
-        <v>66.82392074219001</v>
+        <v>66.82392074219018</v>
       </c>
       <c r="D20" t="n">
-        <v>56.44355781784577</v>
+        <v>56.44355781784594</v>
       </c>
       <c r="E20" t="n">
-        <v>82.95686081853484</v>
+        <v>82.95686081853501</v>
       </c>
       <c r="F20" t="n">
-        <v>107.1326885437882</v>
+        <v>107.1326885437884</v>
       </c>
       <c r="G20" t="n">
-        <v>114.1404607851661</v>
+        <v>114.1404607851663</v>
       </c>
       <c r="H20" t="n">
-        <v>32.31798909651724</v>
+        <v>32.31798909651741</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>28.37204658576673</v>
+        <v>28.3720465857669</v>
       </c>
       <c r="W20" t="n">
-        <v>50.36894206380197</v>
+        <v>50.36894206380214</v>
       </c>
       <c r="X20" t="n">
-        <v>70.70042419441677</v>
+        <v>70.70042419441694</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.52589681448319</v>
+        <v>86.52589681448336</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>68.12331698779137</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.1896438262193</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="V21" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>102.0959777520923</v>
       </c>
     </row>
     <row r="22">
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>75.43798951312817</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>71.29711915503223</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.98445761112272</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>162.2349980398472</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>167.1356551980327</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.55523505464242</v>
+        <v>83.55523505464259</v>
       </c>
       <c r="C23" t="n">
-        <v>66.82392074219001</v>
+        <v>66.82392074219018</v>
       </c>
       <c r="D23" t="n">
-        <v>56.44355781784577</v>
+        <v>56.44355781784594</v>
       </c>
       <c r="E23" t="n">
-        <v>82.95686081853484</v>
+        <v>82.95686081853501</v>
       </c>
       <c r="F23" t="n">
-        <v>107.1326885437882</v>
+        <v>107.1326885437884</v>
       </c>
       <c r="G23" t="n">
-        <v>114.1404607851661</v>
+        <v>114.1404607851663</v>
       </c>
       <c r="H23" t="n">
-        <v>32.31798909651724</v>
+        <v>32.31798909651739</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>28.37204658576673</v>
+        <v>28.3720465857669</v>
       </c>
       <c r="W23" t="n">
-        <v>50.36894206380197</v>
+        <v>50.36894206380214</v>
       </c>
       <c r="X23" t="n">
-        <v>70.70042419441677</v>
+        <v>70.70042419441694</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.52589681448319</v>
+        <v>86.52589681448336</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>103.5701004985432</v>
+        <v>176.8812951538626</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="Y24" t="n">
-        <v>200.8189091210969</v>
+        <v>200.8189091210975</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75.43798951312819</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>71.29711915503223</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.98445761112272</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>162.2349980398472</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>167.1356551980327</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>243.0358179482915</v>
+        <v>243.0358179482917</v>
       </c>
       <c r="C26" t="n">
-        <v>226.3045036358391</v>
+        <v>226.3045036358393</v>
       </c>
       <c r="D26" t="n">
-        <v>215.9241407114949</v>
+        <v>215.924140711495</v>
       </c>
       <c r="E26" t="n">
-        <v>242.4374437121839</v>
+        <v>242.4374437121841</v>
       </c>
       <c r="F26" t="n">
-        <v>266.6132714374373</v>
+        <v>266.6132714374374</v>
       </c>
       <c r="G26" t="n">
-        <v>273.6210436788152</v>
+        <v>273.6210436788153</v>
       </c>
       <c r="H26" t="n">
-        <v>191.7985719901663</v>
+        <v>191.7985719901665</v>
       </c>
       <c r="I26" t="n">
-        <v>43.21918376309956</v>
+        <v>43.21918376309969</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.57991705386097</v>
+        <v>52.57991705386112</v>
       </c>
       <c r="T26" t="n">
-        <v>79.86319997074609</v>
+        <v>79.86319997074625</v>
       </c>
       <c r="U26" t="n">
-        <v>110.7529211588879</v>
+        <v>110.7529211588881</v>
       </c>
       <c r="V26" t="n">
-        <v>187.8526294794158</v>
+        <v>187.852629479416</v>
       </c>
       <c r="W26" t="n">
-        <v>209.8495249574511</v>
+        <v>209.8495249574512</v>
       </c>
       <c r="X26" t="n">
-        <v>230.1810070880659</v>
+        <v>230.181007088066</v>
       </c>
       <c r="Y26" t="n">
-        <v>246.0064797081323</v>
+        <v>246.0064797081324</v>
       </c>
     </row>
     <row r="27">
@@ -2640,19 +2640,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>142.9258222430425</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>2.825640040445791</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.6042570273855</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.31402067538701</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>76.32009000103538</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>22.78387166941879</v>
+        <v>22.78387166941893</v>
       </c>
       <c r="T27" t="n">
-        <v>56.50905178311577</v>
+        <v>162.9592159796883</v>
       </c>
       <c r="U27" t="n">
         <v>224.6377066414877</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.4030994475803</v>
+        <v>39.40309944758044</v>
       </c>
       <c r="C28" t="n">
-        <v>26.65596088809883</v>
+        <v>26.65596088809897</v>
       </c>
       <c r="D28" t="n">
-        <v>8.324974471415857</v>
+        <v>8.324974471415999</v>
       </c>
       <c r="E28" t="n">
-        <v>6.294032130095673</v>
+        <v>6.294032130095815</v>
       </c>
       <c r="F28" t="n">
-        <v>5.478429366700993</v>
+        <v>5.478429366701135</v>
       </c>
       <c r="G28" t="n">
-        <v>26.96088195386811</v>
+        <v>26.96088195386826</v>
       </c>
       <c r="H28" t="n">
-        <v>18.7475126512002</v>
+        <v>18.74751265120035</v>
       </c>
       <c r="I28" t="n">
-        <v>5.61646203779683</v>
+        <v>5.616462037796973</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.55440599674371</v>
+        <v>21.55440599674385</v>
       </c>
       <c r="S28" t="n">
-        <v>77.35284831084115</v>
+        <v>77.3528483108413</v>
       </c>
       <c r="T28" t="n">
-        <v>86.59174650682117</v>
+        <v>86.59174650682131</v>
       </c>
       <c r="U28" t="n">
-        <v>145.3581448061533</v>
+        <v>145.3581448061534</v>
       </c>
       <c r="V28" t="n">
-        <v>112.2557590238357</v>
+        <v>112.2557590238358</v>
       </c>
       <c r="W28" t="n">
-        <v>145.411984844312</v>
+        <v>145.4119848443122</v>
       </c>
       <c r="X28" t="n">
-        <v>85.45976788920575</v>
+        <v>85.45976788920589</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.06808182466472</v>
+        <v>78.06808182466486</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>243.0358179482915</v>
+        <v>243.0358179482917</v>
       </c>
       <c r="C29" t="n">
-        <v>226.3045036358391</v>
+        <v>226.3045036358393</v>
       </c>
       <c r="D29" t="n">
-        <v>215.9241407114948</v>
+        <v>215.924140711495</v>
       </c>
       <c r="E29" t="n">
-        <v>242.4374437121839</v>
+        <v>242.4374437121841</v>
       </c>
       <c r="F29" t="n">
-        <v>266.6132714374373</v>
+        <v>266.6132714374374</v>
       </c>
       <c r="G29" t="n">
-        <v>273.6210436788152</v>
+        <v>273.6210436788153</v>
       </c>
       <c r="H29" t="n">
-        <v>191.7985719901663</v>
+        <v>191.7985719901665</v>
       </c>
       <c r="I29" t="n">
-        <v>43.21918376309949</v>
+        <v>43.21918376309969</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.57991705386091</v>
+        <v>52.57991705386111</v>
       </c>
       <c r="T29" t="n">
-        <v>79.86319997074604</v>
+        <v>79.86319997074624</v>
       </c>
       <c r="U29" t="n">
-        <v>110.7529211588879</v>
+        <v>110.7529211588881</v>
       </c>
       <c r="V29" t="n">
-        <v>187.8526294794158</v>
+        <v>187.852629479416</v>
       </c>
       <c r="W29" t="n">
-        <v>209.849524957451</v>
+        <v>209.8495249574512</v>
       </c>
       <c r="X29" t="n">
-        <v>230.1810070880658</v>
+        <v>230.181007088066</v>
       </c>
       <c r="Y29" t="n">
-        <v>246.0064797081322</v>
+        <v>246.0064797081324</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>24.69153356724146</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>141.7484883897771</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H30" t="n">
-        <v>107.6042570273855</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.31402067538701</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>76.32009000103538</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>22.78387166941873</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T30" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U30" t="n">
-        <v>83.95711459838412</v>
+        <v>224.6377066414877</v>
       </c>
       <c r="V30" t="n">
-        <v>218.8011195755244</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>63.7810375653747</v>
+        <v>63.7810375653749</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.40309944758025</v>
+        <v>39.40309944758044</v>
       </c>
       <c r="C31" t="n">
-        <v>26.65596088809878</v>
+        <v>26.65596088809897</v>
       </c>
       <c r="D31" t="n">
-        <v>8.3249744714158</v>
+        <v>8.324974471415999</v>
       </c>
       <c r="E31" t="n">
-        <v>6.294032130095616</v>
+        <v>6.294032130095815</v>
       </c>
       <c r="F31" t="n">
-        <v>5.478429366700936</v>
+        <v>5.478429366701135</v>
       </c>
       <c r="G31" t="n">
-        <v>26.96088195386806</v>
+        <v>26.96088195386826</v>
       </c>
       <c r="H31" t="n">
-        <v>18.74751265120015</v>
+        <v>18.74751265120035</v>
       </c>
       <c r="I31" t="n">
-        <v>5.616462037796773</v>
+        <v>5.616462037796972</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.55440599674365</v>
+        <v>21.55440599674385</v>
       </c>
       <c r="S31" t="n">
-        <v>77.3528483108411</v>
+        <v>77.3528483108413</v>
       </c>
       <c r="T31" t="n">
-        <v>86.59174650682111</v>
+        <v>86.59174650682131</v>
       </c>
       <c r="U31" t="n">
-        <v>145.3581448061532</v>
+        <v>145.3581448061534</v>
       </c>
       <c r="V31" t="n">
-        <v>112.2557590238356</v>
+        <v>112.2557590238358</v>
       </c>
       <c r="W31" t="n">
-        <v>145.411984844312</v>
+        <v>145.4119848443122</v>
       </c>
       <c r="X31" t="n">
-        <v>85.45976788920569</v>
+        <v>85.45976788920589</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.06808182466466</v>
+        <v>78.06808182466486</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>243.0358179482915</v>
+        <v>243.0358179482917</v>
       </c>
       <c r="C32" t="n">
-        <v>226.3045036358391</v>
+        <v>226.3045036358393</v>
       </c>
       <c r="D32" t="n">
-        <v>215.9241407114949</v>
+        <v>215.924140711495</v>
       </c>
       <c r="E32" t="n">
-        <v>242.4374437121839</v>
+        <v>242.4374437121841</v>
       </c>
       <c r="F32" t="n">
-        <v>266.6132714374373</v>
+        <v>266.6132714374374</v>
       </c>
       <c r="G32" t="n">
-        <v>273.6210436788152</v>
+        <v>273.6210436788153</v>
       </c>
       <c r="H32" t="n">
-        <v>191.7985719901664</v>
+        <v>191.7985719901665</v>
       </c>
       <c r="I32" t="n">
-        <v>43.21918376309955</v>
+        <v>43.21918376309969</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.57991705386095</v>
+        <v>52.5799170538611</v>
       </c>
       <c r="T32" t="n">
-        <v>79.86319997074611</v>
+        <v>79.86319997074625</v>
       </c>
       <c r="U32" t="n">
-        <v>110.7529211588879</v>
+        <v>110.7529211588881</v>
       </c>
       <c r="V32" t="n">
-        <v>187.8526294794158</v>
+        <v>187.852629479416</v>
       </c>
       <c r="W32" t="n">
-        <v>209.8495249574511</v>
+        <v>209.8495249574512</v>
       </c>
       <c r="X32" t="n">
-        <v>230.1810070880659</v>
+        <v>230.181007088066</v>
       </c>
       <c r="Y32" t="n">
-        <v>246.0064797081323</v>
+        <v>246.0064797081324</v>
       </c>
     </row>
     <row r="33">
@@ -3114,10 +3114,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>15.35284166407033</v>
+        <v>15.35284166407047</v>
       </c>
       <c r="F33" t="n">
-        <v>2.825640040445791</v>
+        <v>2.825640040445933</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>107.6042570273855</v>
       </c>
       <c r="I33" t="n">
-        <v>76.31402067538701</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>76.32009000103538</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>150.3568522483909</v>
+        <v>162.3103708817095</v>
       </c>
       <c r="T33" t="n">
         <v>197.1896438262193</v>
@@ -3168,7 +3168,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>109.3087547068965</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.4030994475803</v>
+        <v>39.40309944758044</v>
       </c>
       <c r="C34" t="n">
-        <v>26.65596088809883</v>
+        <v>26.65596088809897</v>
       </c>
       <c r="D34" t="n">
-        <v>8.324974471415857</v>
+        <v>8.324974471415999</v>
       </c>
       <c r="E34" t="n">
-        <v>6.294032130095673</v>
+        <v>6.294032130095815</v>
       </c>
       <c r="F34" t="n">
-        <v>5.478429366700993</v>
+        <v>5.478429366701135</v>
       </c>
       <c r="G34" t="n">
-        <v>26.96088195386811</v>
+        <v>26.96088195386826</v>
       </c>
       <c r="H34" t="n">
-        <v>18.7475126512002</v>
+        <v>18.74751265120035</v>
       </c>
       <c r="I34" t="n">
-        <v>5.61646203779683</v>
+        <v>5.616462037796972</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.55440599674371</v>
+        <v>21.55440599674385</v>
       </c>
       <c r="S34" t="n">
-        <v>77.35284831084115</v>
+        <v>77.3528483108413</v>
       </c>
       <c r="T34" t="n">
-        <v>86.59174650682117</v>
+        <v>86.59174650682131</v>
       </c>
       <c r="U34" t="n">
-        <v>145.3581448061533</v>
+        <v>145.3581448061534</v>
       </c>
       <c r="V34" t="n">
-        <v>112.2557590238357</v>
+        <v>112.2557590238358</v>
       </c>
       <c r="W34" t="n">
-        <v>145.411984844312</v>
+        <v>145.4119848443122</v>
       </c>
       <c r="X34" t="n">
-        <v>85.45976788920575</v>
+        <v>85.45976788920589</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.06808182466472</v>
+        <v>78.06808182466486</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>190.4559008944306</v>
+        <v>190.4559008944305</v>
       </c>
       <c r="C35" t="n">
         <v>173.7245865819781</v>
       </c>
       <c r="D35" t="n">
-        <v>163.3442236576339</v>
+        <v>163.3442236576338</v>
       </c>
       <c r="E35" t="n">
-        <v>189.857526658323</v>
+        <v>189.8575266583229</v>
       </c>
       <c r="F35" t="n">
-        <v>214.0333543835764</v>
+        <v>214.0333543835763</v>
       </c>
       <c r="G35" t="n">
         <v>221.0411266249542</v>
       </c>
       <c r="H35" t="n">
-        <v>139.2186549363054</v>
+        <v>139.2186549363053</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>27.28328291688513</v>
+        <v>27.28328291688506</v>
       </c>
       <c r="U35" t="n">
-        <v>58.17300410502696</v>
+        <v>58.1730041050269</v>
       </c>
       <c r="V35" t="n">
-        <v>135.2727124255549</v>
+        <v>135.2727124255548</v>
       </c>
       <c r="W35" t="n">
-        <v>157.2696079035901</v>
+        <v>157.26960790359</v>
       </c>
       <c r="X35" t="n">
-        <v>177.6010900342049</v>
+        <v>177.6010900342048</v>
       </c>
       <c r="Y35" t="n">
         <v>193.4265626542713</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>73.05518678055083</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -3363,7 +3363,7 @@
         <v>107.6042570273855</v>
       </c>
       <c r="I36" t="n">
-        <v>76.31402067538701</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>76.32009000103538</v>
+        <v>39.85981836535721</v>
       </c>
       <c r="S36" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.1896438262193</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.41064232162154</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>5.515650490323433</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.515650490323891</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.77293125698017</v>
+        <v>24.77293125698012</v>
       </c>
       <c r="T37" t="n">
-        <v>34.01182945296019</v>
+        <v>34.01182945296013</v>
       </c>
       <c r="U37" t="n">
-        <v>92.77822775229228</v>
+        <v>92.77822775229222</v>
       </c>
       <c r="V37" t="n">
-        <v>59.67584196997467</v>
+        <v>59.67584196997461</v>
       </c>
       <c r="W37" t="n">
-        <v>92.83206779045105</v>
+        <v>92.83206779045099</v>
       </c>
       <c r="X37" t="n">
-        <v>32.87985083534477</v>
+        <v>32.87985083534471</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.48816477080373</v>
+        <v>25.48816477080368</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>190.4559008944306</v>
+        <v>190.4559008944305</v>
       </c>
       <c r="C38" t="n">
         <v>173.7245865819781</v>
       </c>
       <c r="D38" t="n">
-        <v>163.3442236576339</v>
+        <v>163.3442236576338</v>
       </c>
       <c r="E38" t="n">
-        <v>189.857526658323</v>
+        <v>189.8575266583229</v>
       </c>
       <c r="F38" t="n">
-        <v>214.0333543835764</v>
+        <v>214.0333543835763</v>
       </c>
       <c r="G38" t="n">
         <v>221.0411266249542</v>
       </c>
       <c r="H38" t="n">
-        <v>139.2186549363054</v>
+        <v>139.2186549363053</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>27.28328291688513</v>
+        <v>27.28328291688506</v>
       </c>
       <c r="U38" t="n">
-        <v>58.17300410502696</v>
+        <v>58.1730041050269</v>
       </c>
       <c r="V38" t="n">
-        <v>135.2727124255549</v>
+        <v>135.2727124255548</v>
       </c>
       <c r="W38" t="n">
-        <v>157.2696079035901</v>
+        <v>157.26960790359</v>
       </c>
       <c r="X38" t="n">
-        <v>177.6010900342049</v>
+        <v>177.6010900342048</v>
       </c>
       <c r="Y38" t="n">
         <v>193.4265626542713</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.6042570273855</v>
+        <v>103.866492409469</v>
       </c>
       <c r="I39" t="n">
-        <v>15.57069891832732</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>163.4644637125223</v>
       </c>
       <c r="T39" t="n">
-        <v>3.929134729254792</v>
+        <v>197.1896438262193</v>
       </c>
       <c r="U39" t="n">
         <v>224.6377066414877</v>
@@ -3642,7 +3642,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>56.72883765303555</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>5.515650490323898</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.77293125698017</v>
+        <v>24.77293125698012</v>
       </c>
       <c r="T40" t="n">
-        <v>34.01182945296019</v>
+        <v>34.01182945296013</v>
       </c>
       <c r="U40" t="n">
-        <v>98.29387824261568</v>
+        <v>92.77822775229222</v>
       </c>
       <c r="V40" t="n">
-        <v>59.67584196997467</v>
+        <v>59.67584196997461</v>
       </c>
       <c r="W40" t="n">
-        <v>92.83206779045105</v>
+        <v>92.83206779045099</v>
       </c>
       <c r="X40" t="n">
-        <v>32.87985083534477</v>
+        <v>32.87985083534471</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.48816477080373</v>
+        <v>25.48816477080368</v>
       </c>
     </row>
     <row r="41">
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.6042570273855</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.31402067538701</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>76.32009000103538</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.1896438262193</v>
+        <v>143.9832694154131</v>
       </c>
       <c r="U42" t="n">
-        <v>104.4534736238381</v>
+        <v>224.6377066414877</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.41064232162148</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.515650490323891</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>24.77293125698012</v>
       </c>
       <c r="T43" t="n">
-        <v>34.01182945296013</v>
+        <v>39.52747994328403</v>
       </c>
       <c r="U43" t="n">
         <v>92.77822775229222</v>
@@ -4056,19 +4056,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7272597341965</v>
+        <v>41.50518884120763</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>64.08805635477547</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.1896438262193</v>
@@ -4122,7 +4122,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.41064232162154</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>5.515650490323314</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.515650490323257</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>556.4247200510625</v>
+        <v>315.3535775303469</v>
       </c>
       <c r="C11" t="n">
-        <v>556.4247200510625</v>
+        <v>173.8331334611482</v>
       </c>
       <c r="D11" t="n">
-        <v>556.4247200510625</v>
+        <v>173.8331334611482</v>
       </c>
       <c r="E11" t="n">
-        <v>556.4247200510625</v>
+        <v>173.8331334611482</v>
       </c>
       <c r="F11" t="n">
-        <v>376.6805164117509</v>
+        <v>173.8331334611482</v>
       </c>
       <c r="G11" t="n">
-        <v>173.8331334611478</v>
+        <v>173.8331334611482</v>
       </c>
       <c r="H11" t="n">
-        <v>19.90922803124263</v>
+        <v>19.90922803124289</v>
       </c>
       <c r="I11" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J11" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="K11" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="L11" t="n">
-        <v>214.8762327595738</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="M11" t="n">
-        <v>214.8762327595738</v>
+        <v>155.6291510293152</v>
       </c>
       <c r="N11" t="n">
-        <v>413.6869527894598</v>
+        <v>354.4398710592017</v>
       </c>
       <c r="O11" t="n">
-        <v>612.4976728193459</v>
+        <v>553.2505910890882</v>
       </c>
       <c r="P11" t="n">
-        <v>740.12222414404</v>
+        <v>740.1222241440419</v>
       </c>
       <c r="Q11" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R11" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="S11" t="n">
-        <v>789.9766350305489</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="T11" t="n">
-        <v>749.1187619434925</v>
+        <v>762.4177633973333</v>
       </c>
       <c r="U11" t="n">
-        <v>749.1187619434925</v>
+        <v>690.3581517363959</v>
       </c>
       <c r="V11" t="n">
-        <v>749.1187619434925</v>
+        <v>690.3581517363959</v>
       </c>
       <c r="W11" t="n">
-        <v>749.1187619434925</v>
+        <v>518.2009604809505</v>
       </c>
       <c r="X11" t="n">
-        <v>556.4247200510625</v>
+        <v>518.2009604809505</v>
       </c>
       <c r="Y11" t="n">
-        <v>556.4247200510625</v>
+        <v>315.3535775303469</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>492.5571381616818</v>
+        <v>173.6750417268331</v>
       </c>
       <c r="C12" t="n">
-        <v>492.5571381616818</v>
+        <v>173.6750417268331</v>
       </c>
       <c r="D12" t="n">
-        <v>492.5571381616818</v>
+        <v>173.6750417268331</v>
       </c>
       <c r="E12" t="n">
-        <v>375.2044142379028</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="F12" t="n">
-        <v>230.2486242545197</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="G12" t="n">
-        <v>93.15038209876556</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="H12" t="n">
-        <v>93.15038209876556</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I12" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J12" t="n">
-        <v>51.14004463566327</v>
+        <v>51.1400446356633</v>
       </c>
       <c r="K12" t="n">
         <v>237.6936194845048</v>
       </c>
       <c r="L12" t="n">
-        <v>436.5043395143908</v>
+        <v>237.6936194845048</v>
       </c>
       <c r="M12" t="n">
-        <v>436.5043395143908</v>
+        <v>237.6936194845048</v>
       </c>
       <c r="N12" t="n">
-        <v>436.5043395143908</v>
+        <v>287.0759885905104</v>
       </c>
       <c r="O12" t="n">
-        <v>604.464916454502</v>
+        <v>485.8867086203969</v>
       </c>
       <c r="P12" t="n">
-        <v>803.2756364843881</v>
+        <v>684.6974286502834</v>
       </c>
       <c r="Q12" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R12" t="n">
-        <v>726.1846364833423</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="S12" t="n">
-        <v>726.1846364833423</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="T12" t="n">
-        <v>708.9168120706599</v>
+        <v>604.0941780740674</v>
       </c>
       <c r="U12" t="n">
-        <v>663.923671682959</v>
+        <v>559.1010376863662</v>
       </c>
       <c r="V12" t="n">
-        <v>611.5860622062</v>
+        <v>424.9504910529288</v>
       </c>
       <c r="W12" t="n">
-        <v>540.9852045371734</v>
+        <v>222.1031081023253</v>
       </c>
       <c r="X12" t="n">
-        <v>516.3719399403911</v>
+        <v>197.4898435055427</v>
       </c>
       <c r="Y12" t="n">
-        <v>492.5571381616818</v>
+        <v>173.6750417268331</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="C13" t="n">
-        <v>28.69587800888455</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="D13" t="n">
-        <v>28.69587800888455</v>
+        <v>46.84355456140054</v>
       </c>
       <c r="E13" t="n">
-        <v>61.48455275850446</v>
+        <v>46.84355456140054</v>
       </c>
       <c r="F13" t="n">
-        <v>61.48455275850446</v>
+        <v>46.84355456140054</v>
       </c>
       <c r="G13" t="n">
-        <v>61.48455275850446</v>
+        <v>46.84355456140054</v>
       </c>
       <c r="H13" t="n">
-        <v>61.48455275850446</v>
+        <v>46.84355456140054</v>
       </c>
       <c r="I13" t="n">
-        <v>61.48455275850446</v>
+        <v>46.84355456140054</v>
       </c>
       <c r="J13" t="n">
-        <v>103.5871587749219</v>
+        <v>46.84355456140054</v>
       </c>
       <c r="K13" t="n">
-        <v>117.4986727636208</v>
+        <v>117.4986727636223</v>
       </c>
       <c r="L13" t="n">
-        <v>191.1042362389609</v>
+        <v>191.1042362389624</v>
       </c>
       <c r="M13" t="n">
-        <v>279.3038822845459</v>
+        <v>279.3038822845475</v>
       </c>
       <c r="N13" t="n">
-        <v>370.5475997779096</v>
+        <v>370.5475997779111</v>
       </c>
       <c r="O13" t="n">
-        <v>439.48934455123</v>
+        <v>439.4893445512316</v>
       </c>
       <c r="P13" t="n">
-        <v>475.2584358649525</v>
+        <v>475.258435864954</v>
       </c>
       <c r="Q13" t="n">
-        <v>475.2584358649525</v>
+        <v>475.258435864954</v>
       </c>
       <c r="R13" t="n">
-        <v>475.2584358649525</v>
+        <v>475.258435864954</v>
       </c>
       <c r="S13" t="n">
-        <v>436.9362715252748</v>
+        <v>436.9362715252761</v>
       </c>
       <c r="T13" t="n">
-        <v>389.2818867856173</v>
+        <v>389.2818867856184</v>
       </c>
       <c r="U13" t="n">
-        <v>282.2675037638062</v>
+        <v>282.267503763807</v>
       </c>
       <c r="V13" t="n">
-        <v>208.6898740574674</v>
+        <v>208.689874057468</v>
       </c>
       <c r="W13" t="n">
-        <v>101.6211071587282</v>
+        <v>101.6211071587286</v>
       </c>
       <c r="X13" t="n">
-        <v>55.11013516413674</v>
+        <v>55.11013516413698</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>589.8281595861018</v>
+        <v>376.6805164117518</v>
       </c>
       <c r="C14" t="n">
-        <v>401.0497777464262</v>
+        <v>376.6805164117518</v>
       </c>
       <c r="D14" t="n">
-        <v>222.7566109818457</v>
+        <v>376.6805164117518</v>
       </c>
       <c r="E14" t="n">
-        <v>222.7566109818457</v>
+        <v>376.6805164117518</v>
       </c>
       <c r="F14" t="n">
-        <v>222.7566109818457</v>
+        <v>173.8331334611483</v>
       </c>
       <c r="G14" t="n">
-        <v>19.90922803124263</v>
+        <v>173.8331334611483</v>
       </c>
       <c r="H14" t="n">
-        <v>19.90922803124263</v>
+        <v>19.90922803124282</v>
       </c>
       <c r="I14" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J14" t="n">
-        <v>61.88955680326648</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="K14" t="n">
-        <v>252.8445129431567</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="L14" t="n">
-        <v>405.654196424616</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="M14" t="n">
-        <v>604.464916454502</v>
+        <v>214.8762327595743</v>
       </c>
       <c r="N14" t="n">
-        <v>803.2756364843881</v>
+        <v>354.4398710592017</v>
       </c>
       <c r="O14" t="n">
-        <v>803.2756364843881</v>
+        <v>553.2505910890882</v>
       </c>
       <c r="P14" t="n">
-        <v>803.2756364843881</v>
+        <v>740.1222241440419</v>
       </c>
       <c r="Q14" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R14" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="S14" t="n">
-        <v>792.6755425367049</v>
+        <v>789.9766350305507</v>
       </c>
       <c r="T14" t="n">
-        <v>792.6755425367049</v>
+        <v>789.9766350305507</v>
       </c>
       <c r="U14" t="n">
-        <v>792.6755425367049</v>
+        <v>782.3752823129589</v>
       </c>
       <c r="V14" t="n">
-        <v>792.6755425367049</v>
+        <v>782.3752823129589</v>
       </c>
       <c r="W14" t="n">
-        <v>792.6755425367049</v>
+        <v>782.3752823129589</v>
       </c>
       <c r="X14" t="n">
-        <v>792.6755425367049</v>
+        <v>782.3752823129589</v>
       </c>
       <c r="Y14" t="n">
-        <v>792.6755425367049</v>
+        <v>579.5278993623554</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>237.4899671295284</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="C15" t="n">
-        <v>237.4899671295284</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="D15" t="n">
-        <v>237.4899671295284</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="E15" t="n">
-        <v>237.4899671295284</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="F15" t="n">
-        <v>92.53417714614525</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="G15" t="n">
-        <v>92.53417714614525</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="H15" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I15" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J15" t="n">
-        <v>51.14004463566327</v>
+        <v>51.1400446356633</v>
       </c>
       <c r="K15" t="n">
-        <v>51.14004463566327</v>
+        <v>51.1400446356633</v>
       </c>
       <c r="L15" t="n">
-        <v>51.14004463566327</v>
+        <v>51.1400446356633</v>
       </c>
       <c r="M15" t="n">
-        <v>249.9507646655493</v>
+        <v>88.26526856062389</v>
       </c>
       <c r="N15" t="n">
-        <v>448.7614846954353</v>
+        <v>287.0759885905104</v>
       </c>
       <c r="O15" t="n">
-        <v>604.464916454502</v>
+        <v>485.8867086203969</v>
       </c>
       <c r="P15" t="n">
-        <v>803.2756364843881</v>
+        <v>684.6974286502834</v>
       </c>
       <c r="Q15" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R15" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="S15" t="n">
-        <v>638.1600165727494</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="T15" t="n">
-        <v>620.8921921600671</v>
+        <v>604.0941780740674</v>
       </c>
       <c r="U15" t="n">
-        <v>575.8990517723662</v>
+        <v>504.9843708463706</v>
       </c>
       <c r="V15" t="n">
-        <v>523.5614422956072</v>
+        <v>302.136987895767</v>
       </c>
       <c r="W15" t="n">
-        <v>452.9605846265806</v>
+        <v>231.5361302267403</v>
       </c>
       <c r="X15" t="n">
-        <v>428.3473200297983</v>
+        <v>206.9228656299578</v>
       </c>
       <c r="Y15" t="n">
-        <v>404.5325182510888</v>
+        <v>183.1080638512483</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="C16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="D16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="E16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="F16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="G16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="H16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="K16" t="n">
-        <v>29.97702671838671</v>
+        <v>117.4986727636219</v>
       </c>
       <c r="L16" t="n">
-        <v>103.5825901937268</v>
+        <v>191.104236238962</v>
       </c>
       <c r="M16" t="n">
-        <v>191.7822362393118</v>
+        <v>279.3038822845471</v>
       </c>
       <c r="N16" t="n">
-        <v>370.5475997779096</v>
+        <v>370.5475997779107</v>
       </c>
       <c r="O16" t="n">
-        <v>439.48934455123</v>
+        <v>439.4893445512312</v>
       </c>
       <c r="P16" t="n">
-        <v>475.2584358649525</v>
+        <v>475.2584358649536</v>
       </c>
       <c r="Q16" t="n">
-        <v>475.2584358649525</v>
+        <v>475.2584358649536</v>
       </c>
       <c r="R16" t="n">
-        <v>475.2584358649525</v>
+        <v>475.2584358649536</v>
       </c>
       <c r="S16" t="n">
-        <v>436.9362715252748</v>
+        <v>436.9362715252757</v>
       </c>
       <c r="T16" t="n">
-        <v>389.2818867856173</v>
+        <v>389.2818867856181</v>
       </c>
       <c r="U16" t="n">
-        <v>282.2675037638062</v>
+        <v>282.2675037638068</v>
       </c>
       <c r="V16" t="n">
-        <v>208.6898740574674</v>
+        <v>208.6898740574678</v>
       </c>
       <c r="W16" t="n">
-        <v>101.6211071587282</v>
+        <v>101.6211071587285</v>
       </c>
       <c r="X16" t="n">
-        <v>55.11013516413674</v>
+        <v>55.11013516413692</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>480.5255913196299</v>
+        <v>480.5255913196304</v>
       </c>
       <c r="C17" t="n">
-        <v>413.0266814790339</v>
+        <v>413.0266814790343</v>
       </c>
       <c r="D17" t="n">
         <v>356.0129867135333</v>
       </c>
       <c r="E17" t="n">
-        <v>272.2181778059224</v>
+        <v>272.2181778059222</v>
       </c>
       <c r="F17" t="n">
-        <v>164.0033408930051</v>
+        <v>164.0033408930044</v>
       </c>
       <c r="G17" t="n">
-        <v>48.7099461605132</v>
+        <v>48.70994616051347</v>
       </c>
       <c r="H17" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I17" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J17" t="n">
-        <v>61.88955680326648</v>
+        <v>61.88955680326652</v>
       </c>
       <c r="K17" t="n">
         <v>252.8445129431567</v>
       </c>
       <c r="L17" t="n">
-        <v>417.5932833995483</v>
+        <v>354.4398710592017</v>
       </c>
       <c r="M17" t="n">
-        <v>616.4040034294344</v>
+        <v>354.4398710592017</v>
       </c>
       <c r="N17" t="n">
-        <v>616.4040034294344</v>
+        <v>354.4398710592017</v>
       </c>
       <c r="O17" t="n">
-        <v>616.4040034294344</v>
+        <v>553.2505910890882</v>
       </c>
       <c r="P17" t="n">
-        <v>803.2756364843881</v>
+        <v>740.1222241440419</v>
       </c>
       <c r="Q17" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R17" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="S17" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="T17" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="U17" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="V17" t="n">
-        <v>774.6170035694722</v>
+        <v>774.6170035694738</v>
       </c>
       <c r="W17" t="n">
-        <v>723.739284313107</v>
+        <v>723.739284313108</v>
       </c>
       <c r="X17" t="n">
-        <v>652.3247144197569</v>
+        <v>652.3247144197576</v>
       </c>
       <c r="Y17" t="n">
-        <v>564.9248186475517</v>
+        <v>564.9248186475522</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>238.1061720821487</v>
+        <v>318.6308317102163</v>
       </c>
       <c r="C18" t="n">
-        <v>238.1061720821487</v>
+        <v>318.6308317102163</v>
       </c>
       <c r="D18" t="n">
-        <v>238.1061720821487</v>
+        <v>318.6308317102163</v>
       </c>
       <c r="E18" t="n">
-        <v>238.1061720821487</v>
+        <v>161.021302713071</v>
       </c>
       <c r="F18" t="n">
-        <v>93.15038209876556</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="G18" t="n">
-        <v>93.15038209876556</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="H18" t="n">
-        <v>93.15038209876556</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I18" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J18" t="n">
-        <v>51.14004463566327</v>
+        <v>51.1400446356633</v>
       </c>
       <c r="K18" t="n">
-        <v>51.14004463566327</v>
+        <v>237.6936194845048</v>
       </c>
       <c r="L18" t="n">
-        <v>88.26526856062333</v>
+        <v>405.6541964246169</v>
       </c>
       <c r="M18" t="n">
-        <v>287.0759885905094</v>
+        <v>604.4649164545034</v>
       </c>
       <c r="N18" t="n">
-        <v>485.8867086203954</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="O18" t="n">
-        <v>485.8867086203954</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="P18" t="n">
-        <v>684.6974286502815</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="Q18" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R18" t="n">
-        <v>726.1846364833423</v>
+        <v>726.1846364833441</v>
       </c>
       <c r="S18" t="n">
-        <v>643.8009379833549</v>
+        <v>726.1846364833441</v>
       </c>
       <c r="T18" t="n">
-        <v>643.8009379833549</v>
+        <v>726.1846364833441</v>
       </c>
       <c r="U18" t="n">
-        <v>440.9535550327518</v>
+        <v>726.1846364833441</v>
       </c>
       <c r="V18" t="n">
-        <v>440.9535550327518</v>
+        <v>688.5207657823803</v>
       </c>
       <c r="W18" t="n">
-        <v>440.9535550327518</v>
+        <v>485.6733828317767</v>
       </c>
       <c r="X18" t="n">
-        <v>440.9535550327518</v>
+        <v>485.6733828317767</v>
       </c>
       <c r="Y18" t="n">
-        <v>238.1061720821487</v>
+        <v>485.6733828317767</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>236.5420211420427</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="C19" t="n">
-        <v>236.5420211420427</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="D19" t="n">
-        <v>236.5420211420427</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="E19" t="n">
-        <v>88.08280480547791</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="F19" t="n">
-        <v>88.08280480547791</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="G19" t="n">
-        <v>88.08280480547791</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="H19" t="n">
-        <v>88.08280480547791</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I19" t="n">
-        <v>88.08280480547791</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J19" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="K19" t="n">
-        <v>29.97702671838671</v>
+        <v>29.97702671838674</v>
       </c>
       <c r="L19" t="n">
         <v>103.5825901937268</v>
       </c>
       <c r="M19" t="n">
-        <v>191.7822362393118</v>
+        <v>191.7822362393119</v>
       </c>
       <c r="N19" t="n">
         <v>283.0259537326755</v>
@@ -5698,25 +5698,25 @@
         <v>387.7367898197184</v>
       </c>
       <c r="S19" t="n">
-        <v>387.7367898197184</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="T19" t="n">
-        <v>387.7367898197184</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="U19" t="n">
-        <v>387.7367898197184</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="V19" t="n">
-        <v>387.7367898197184</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="W19" t="n">
-        <v>387.7367898197184</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="X19" t="n">
-        <v>387.7367898197184</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="Y19" t="n">
-        <v>236.5420211420427</v>
+        <v>16.0655127296878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>480.5255913196297</v>
+        <v>480.5255913196306</v>
       </c>
       <c r="C20" t="n">
-        <v>413.0266814790336</v>
+        <v>413.0266814790345</v>
       </c>
       <c r="D20" t="n">
-        <v>356.0129867135329</v>
+        <v>356.0129867135336</v>
       </c>
       <c r="E20" t="n">
-        <v>272.2181778059221</v>
+        <v>272.2181778059224</v>
       </c>
       <c r="F20" t="n">
-        <v>164.0033408930044</v>
+        <v>164.0033408930049</v>
       </c>
       <c r="G20" t="n">
-        <v>48.70994616051325</v>
+        <v>48.70994616051347</v>
       </c>
       <c r="H20" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I20" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J20" t="n">
-        <v>61.88955680326648</v>
+        <v>61.88955680326652</v>
       </c>
       <c r="K20" t="n">
         <v>252.8445129431567</v>
       </c>
       <c r="L20" t="n">
-        <v>252.8445129431567</v>
+        <v>451.6552329730432</v>
       </c>
       <c r="M20" t="n">
-        <v>252.8445129431567</v>
+        <v>604.4649164545034</v>
       </c>
       <c r="N20" t="n">
-        <v>451.6552329730428</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="O20" t="n">
-        <v>553.2505910890864</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="P20" t="n">
-        <v>740.12222414404</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="Q20" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R20" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="S20" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="T20" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="U20" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="V20" t="n">
-        <v>774.6170035694722</v>
+        <v>774.617003569474</v>
       </c>
       <c r="W20" t="n">
-        <v>723.7392843131067</v>
+        <v>723.7392843131083</v>
       </c>
       <c r="X20" t="n">
-        <v>652.3247144197566</v>
+        <v>652.3247144197579</v>
       </c>
       <c r="Y20" t="n">
-        <v>564.9248186475513</v>
+        <v>564.9248186475525</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>232.4652506715433</v>
+        <v>298.1195448688251</v>
       </c>
       <c r="C21" t="n">
-        <v>163.6538193707439</v>
+        <v>298.1195448688251</v>
       </c>
       <c r="D21" t="n">
-        <v>16.06551272968776</v>
+        <v>298.1195448688251</v>
       </c>
       <c r="E21" t="n">
-        <v>16.06551272968776</v>
+        <v>298.1195448688251</v>
       </c>
       <c r="F21" t="n">
-        <v>16.06551272968776</v>
+        <v>153.1637548854419</v>
       </c>
       <c r="G21" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="H21" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I21" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J21" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="K21" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="L21" t="n">
-        <v>16.06551272968776</v>
+        <v>206.8434763947304</v>
       </c>
       <c r="M21" t="n">
-        <v>214.8762327595738</v>
+        <v>206.8434763947304</v>
       </c>
       <c r="N21" t="n">
-        <v>413.6869527894598</v>
+        <v>405.6541964246169</v>
       </c>
       <c r="O21" t="n">
-        <v>604.464916454502</v>
+        <v>604.4649164545034</v>
       </c>
       <c r="P21" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="Q21" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R21" t="n">
-        <v>803.2756364843881</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="S21" t="n">
-        <v>638.1600165727494</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="T21" t="n">
-        <v>638.1600165727494</v>
+        <v>604.0941780740674</v>
       </c>
       <c r="U21" t="n">
-        <v>638.1600165727494</v>
+        <v>401.2467951234638</v>
       </c>
       <c r="V21" t="n">
-        <v>435.3126336221463</v>
+        <v>401.2467951234638</v>
       </c>
       <c r="W21" t="n">
-        <v>232.4652506715433</v>
+        <v>401.2467951234638</v>
       </c>
       <c r="X21" t="n">
-        <v>232.4652506715433</v>
+        <v>401.2467951234638</v>
       </c>
       <c r="Y21" t="n">
-        <v>232.4652506715433</v>
+        <v>298.1195448688251</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="C22" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="E22" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="F22" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="G22" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="H22" t="n">
-        <v>88.08280480547791</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I22" t="n">
-        <v>88.08280480547791</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J22" t="n">
-        <v>16.06551272968776</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="K22" t="n">
-        <v>29.97702671838671</v>
+        <v>29.97702671838674</v>
       </c>
       <c r="L22" t="n">
         <v>103.5825901937268</v>
       </c>
       <c r="M22" t="n">
-        <v>191.7822362393118</v>
+        <v>191.7822362393119</v>
       </c>
       <c r="N22" t="n">
         <v>283.0259537326755</v>
@@ -5929,31 +5929,31 @@
         <v>387.7367898197184</v>
       </c>
       <c r="Q22" t="n">
-        <v>328.1565296064632</v>
+        <v>387.7367898197184</v>
       </c>
       <c r="R22" t="n">
-        <v>164.2827942126781</v>
+        <v>387.7367898197184</v>
       </c>
       <c r="S22" t="n">
-        <v>164.2827942126781</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="T22" t="n">
-        <v>164.2827942126781</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="U22" t="n">
-        <v>164.2827942126781</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="V22" t="n">
-        <v>164.2827942126781</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="W22" t="n">
-        <v>164.2827942126781</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="X22" t="n">
-        <v>164.2827942126781</v>
+        <v>184.8894068691148</v>
       </c>
       <c r="Y22" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>480.525591319629</v>
+        <v>480.5255913196303</v>
       </c>
       <c r="C23" t="n">
-        <v>413.026681479033</v>
+        <v>413.0266814790342</v>
       </c>
       <c r="D23" t="n">
-        <v>356.0129867135324</v>
+        <v>356.0129867135332</v>
       </c>
       <c r="E23" t="n">
-        <v>272.2181778059215</v>
+        <v>272.2181778059221</v>
       </c>
       <c r="F23" t="n">
-        <v>164.0033408930041</v>
+        <v>164.0033408930045</v>
       </c>
       <c r="G23" t="n">
-        <v>48.70994616051325</v>
+        <v>48.70994616051334</v>
       </c>
       <c r="H23" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296877</v>
       </c>
       <c r="I23" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J23" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="K23" t="n">
-        <v>206.8434763947298</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="L23" t="n">
-        <v>405.6541964246157</v>
+        <v>214.8762327595743</v>
       </c>
       <c r="M23" t="n">
-        <v>604.4649164545017</v>
+        <v>214.8762327595743</v>
       </c>
       <c r="N23" t="n">
-        <v>803.2756364843876</v>
+        <v>354.4398710592017</v>
       </c>
       <c r="O23" t="n">
-        <v>803.2756364843876</v>
+        <v>553.2505910890882</v>
       </c>
       <c r="P23" t="n">
-        <v>803.2756364843876</v>
+        <v>740.1222241440419</v>
       </c>
       <c r="Q23" t="n">
-        <v>803.2756364843876</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R23" t="n">
-        <v>803.2756364843876</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="S23" t="n">
-        <v>803.2756364843876</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="T23" t="n">
-        <v>803.2756364843876</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="U23" t="n">
-        <v>803.2756364843876</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="V23" t="n">
-        <v>774.6170035694715</v>
+        <v>774.6170035694738</v>
       </c>
       <c r="W23" t="n">
-        <v>723.7392843131062</v>
+        <v>723.739284313108</v>
       </c>
       <c r="X23" t="n">
-        <v>652.324714419756</v>
+        <v>652.3247144197576</v>
       </c>
       <c r="Y23" t="n">
-        <v>564.9248186475508</v>
+        <v>564.9248186475521</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>163.6538193707439</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="C24" t="n">
-        <v>163.6538193707439</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="D24" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="E24" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="F24" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="G24" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="H24" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I24" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J24" t="n">
-        <v>51.14004463566326</v>
+        <v>51.1400446356633</v>
       </c>
       <c r="K24" t="n">
-        <v>237.6936194845048</v>
+        <v>51.1400446356633</v>
       </c>
       <c r="L24" t="n">
-        <v>237.6936194845048</v>
+        <v>249.9507646655498</v>
       </c>
       <c r="M24" t="n">
-        <v>287.0759885905092</v>
+        <v>405.6541964246169</v>
       </c>
       <c r="N24" t="n">
-        <v>485.8867086203951</v>
+        <v>604.4649164545034</v>
       </c>
       <c r="O24" t="n">
-        <v>485.8867086203951</v>
+        <v>604.4649164545034</v>
       </c>
       <c r="P24" t="n">
-        <v>684.697428650281</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="Q24" t="n">
-        <v>803.2756364843876</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="R24" t="n">
-        <v>803.2756364843876</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="S24" t="n">
-        <v>638.160016572749</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="T24" t="n">
-        <v>638.160016572749</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="U24" t="n">
-        <v>638.160016572749</v>
+        <v>803.2756364843899</v>
       </c>
       <c r="V24" t="n">
-        <v>533.5437534429074</v>
+        <v>624.6076615814984</v>
       </c>
       <c r="W24" t="n">
-        <v>533.5437534429074</v>
+        <v>421.7602786308948</v>
       </c>
       <c r="X24" t="n">
-        <v>533.5437534429074</v>
+        <v>218.9128956802913</v>
       </c>
       <c r="Y24" t="n">
-        <v>330.6963704923044</v>
+        <v>16.0655127296878</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="C25" t="n">
-        <v>88.08280480547789</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="D25" t="n">
-        <v>88.08280480547789</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="E25" t="n">
-        <v>88.08280480547789</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="F25" t="n">
-        <v>88.08280480547789</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="G25" t="n">
-        <v>88.08280480547789</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="H25" t="n">
-        <v>88.08280480547789</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="I25" t="n">
-        <v>88.08280480547789</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="J25" t="n">
-        <v>16.06551272968775</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="K25" t="n">
-        <v>29.9770267183867</v>
+        <v>29.97702671838674</v>
       </c>
       <c r="L25" t="n">
         <v>103.5825901937268</v>
       </c>
       <c r="M25" t="n">
-        <v>191.7822362393118</v>
+        <v>191.7822362393119</v>
       </c>
       <c r="N25" t="n">
         <v>283.0259537326755</v>
@@ -6166,31 +6166,31 @@
         <v>387.7367898197184</v>
       </c>
       <c r="Q25" t="n">
-        <v>328.1565296064632</v>
+        <v>387.7367898197184</v>
       </c>
       <c r="R25" t="n">
-        <v>164.2827942126781</v>
+        <v>387.7367898197184</v>
       </c>
       <c r="S25" t="n">
-        <v>164.2827942126781</v>
+        <v>387.7367898197184</v>
       </c>
       <c r="T25" t="n">
-        <v>164.2827942126781</v>
+        <v>387.7367898197184</v>
       </c>
       <c r="U25" t="n">
-        <v>164.2827942126781</v>
+        <v>218.9128956802913</v>
       </c>
       <c r="V25" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="W25" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="X25" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
       <c r="Y25" t="n">
-        <v>164.2827942126781</v>
+        <v>16.0655127296878</v>
       </c>
     </row>
     <row r="26">
@@ -6209,67 +6209,67 @@
         <v>1086.102367981804</v>
       </c>
       <c r="E26" t="n">
-        <v>841.2160612018201</v>
+        <v>841.2160612018204</v>
       </c>
       <c r="F26" t="n">
-        <v>571.9097264165296</v>
+        <v>571.9097264165302</v>
       </c>
       <c r="G26" t="n">
-        <v>295.5248338116658</v>
+        <v>295.5248338116662</v>
       </c>
       <c r="H26" t="n">
-        <v>101.7889025084674</v>
+        <v>101.7889025084679</v>
       </c>
       <c r="I26" t="n">
-        <v>58.13316133361962</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="J26" t="n">
-        <v>243.2309915298708</v>
+        <v>243.2309915298707</v>
       </c>
       <c r="K26" t="n">
-        <v>573.4597337924334</v>
+        <v>573.4597337924333</v>
       </c>
       <c r="L26" t="n">
-        <v>1001.599106522049</v>
+        <v>1001.599106522048</v>
       </c>
       <c r="M26" t="n">
-        <v>1477.503810042796</v>
+        <v>1477.503810042795</v>
       </c>
       <c r="N26" t="n">
-        <v>1943.338378751558</v>
+        <v>1943.338378751562</v>
       </c>
       <c r="O26" t="n">
-        <v>2344.845900333925</v>
+        <v>2344.845900333928</v>
       </c>
       <c r="P26" t="n">
-        <v>2670.991319511551</v>
+        <v>2670.991319511554</v>
       </c>
       <c r="Q26" t="n">
-        <v>2873.418517974572</v>
+        <v>2873.418517974575</v>
       </c>
       <c r="R26" t="n">
-        <v>2906.658066680981</v>
+        <v>2906.658066680983</v>
       </c>
       <c r="S26" t="n">
-        <v>2853.547039353849</v>
+        <v>2853.547039353851</v>
       </c>
       <c r="T26" t="n">
-        <v>2772.877140393499</v>
+        <v>2772.877140393501</v>
       </c>
       <c r="U26" t="n">
-        <v>2661.005502859269</v>
+        <v>2661.005502859271</v>
       </c>
       <c r="V26" t="n">
-        <v>2471.255372071981</v>
+        <v>2471.255372071982</v>
       </c>
       <c r="W26" t="n">
-        <v>2259.286154943242</v>
+        <v>2259.286154943243</v>
       </c>
       <c r="X26" t="n">
-        <v>2026.780087177519</v>
+        <v>2026.78008717752</v>
       </c>
       <c r="Y26" t="n">
-        <v>1778.288693532941</v>
+        <v>1778.288693532942</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>711.474320412718</v>
+        <v>681.0399020333871</v>
       </c>
       <c r="C27" t="n">
-        <v>538.7212053345352</v>
+        <v>508.2867869552043</v>
       </c>
       <c r="D27" t="n">
-        <v>391.132898693479</v>
+        <v>360.6984803141481</v>
       </c>
       <c r="E27" t="n">
-        <v>246.7633812762643</v>
+        <v>203.0889513170028</v>
       </c>
       <c r="F27" t="n">
-        <v>243.9091994172282</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="G27" t="n">
-        <v>243.9091994172282</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="H27" t="n">
-        <v>135.2180307026974</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="I27" t="n">
-        <v>58.13316133361962</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="J27" t="n">
-        <v>93.20769323959513</v>
+        <v>93.20769323959517</v>
       </c>
       <c r="K27" t="n">
-        <v>279.7612680884366</v>
+        <v>279.7612680884367</v>
       </c>
       <c r="L27" t="n">
         <v>591.4551785769672</v>
@@ -6327,28 +6327,28 @@
         <v>2161.629577505771</v>
       </c>
       <c r="R27" t="n">
-        <v>2084.538577504725</v>
+        <v>2161.629577505771</v>
       </c>
       <c r="S27" t="n">
-        <v>2061.524565717433</v>
+        <v>2138.615565718479</v>
       </c>
       <c r="T27" t="n">
-        <v>2004.444715431458</v>
+        <v>1974.010297052127</v>
       </c>
       <c r="U27" t="n">
-        <v>1777.537941046117</v>
+        <v>1747.103522666786</v>
       </c>
       <c r="V27" t="n">
-        <v>1543.286697571717</v>
+        <v>1512.852279192387</v>
       </c>
       <c r="W27" t="n">
-        <v>1290.772205905051</v>
+        <v>1260.33778752572</v>
       </c>
       <c r="X27" t="n">
-        <v>1084.245307310628</v>
+        <v>1053.810888931297</v>
       </c>
       <c r="Y27" t="n">
-        <v>878.5168715342785</v>
+        <v>848.0824531549475</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.2021042620808</v>
+        <v>157.2021042620818</v>
       </c>
       <c r="C28" t="n">
-        <v>130.2768912437991</v>
+        <v>130.2768912438</v>
       </c>
       <c r="D28" t="n">
-        <v>121.8678261211568</v>
+        <v>121.8678261211576</v>
       </c>
       <c r="E28" t="n">
-        <v>115.510217908939</v>
+        <v>115.5102179089396</v>
       </c>
       <c r="F28" t="n">
-        <v>109.9764508718672</v>
+        <v>109.9764508718677</v>
       </c>
       <c r="G28" t="n">
-        <v>82.74323677705097</v>
+        <v>82.74323677705131</v>
       </c>
       <c r="H28" t="n">
-        <v>63.80635531119218</v>
+        <v>63.80635531119237</v>
       </c>
       <c r="I28" t="n">
-        <v>58.13316133361962</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="J28" t="n">
-        <v>126.8227994928102</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="K28" t="n">
-        <v>280.0080996041816</v>
+        <v>72.04467532231861</v>
       </c>
       <c r="L28" t="n">
-        <v>452.3452874966221</v>
+        <v>173.7977152512802</v>
       </c>
       <c r="M28" t="n">
-        <v>679.8187196648796</v>
+        <v>261.9973612968653</v>
       </c>
       <c r="N28" t="n">
-        <v>771.0624371582433</v>
+        <v>492.5148649129012</v>
       </c>
       <c r="O28" t="n">
-        <v>840.0041819315637</v>
+        <v>700.7303958088939</v>
       </c>
       <c r="P28" t="n">
-        <v>875.7732732452862</v>
+        <v>875.7732732452887</v>
       </c>
       <c r="Q28" t="n">
-        <v>956.6524463329472</v>
+        <v>956.6524463329496</v>
       </c>
       <c r="R28" t="n">
-        <v>934.8803190635091</v>
+        <v>934.8803190635114</v>
       </c>
       <c r="S28" t="n">
-        <v>856.7461288505382</v>
+        <v>856.7461288505403</v>
       </c>
       <c r="T28" t="n">
-        <v>769.2797182375875</v>
+        <v>769.2797182375895</v>
       </c>
       <c r="U28" t="n">
-        <v>622.4533093424832</v>
+        <v>622.453309342485</v>
       </c>
       <c r="V28" t="n">
-        <v>509.0636537628512</v>
+        <v>509.0636537628529</v>
       </c>
       <c r="W28" t="n">
-        <v>362.1828609908189</v>
+        <v>362.1828609908204</v>
       </c>
       <c r="X28" t="n">
-        <v>275.8598631229343</v>
+        <v>275.8598631229356</v>
       </c>
       <c r="Y28" t="n">
-        <v>197.0032148151922</v>
+        <v>197.0032148151934</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1532.797968332646</v>
+        <v>1532.797968332648</v>
       </c>
       <c r="C29" t="n">
-        <v>1304.207560619678</v>
+        <v>1304.207560619679</v>
       </c>
       <c r="D29" t="n">
-        <v>1086.102367981804</v>
+        <v>1086.102367981805</v>
       </c>
       <c r="E29" t="n">
-        <v>841.2160612018203</v>
+        <v>841.2160612018207</v>
       </c>
       <c r="F29" t="n">
-        <v>571.90972641653</v>
+        <v>571.9097264165302</v>
       </c>
       <c r="G29" t="n">
-        <v>295.5248338116662</v>
+        <v>295.5248338116663</v>
       </c>
       <c r="H29" t="n">
-        <v>101.7889025084676</v>
+        <v>101.7889025084678</v>
       </c>
       <c r="I29" t="n">
-        <v>58.13316133361962</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="J29" t="n">
-        <v>243.2309915298709</v>
+        <v>243.2309915298707</v>
       </c>
       <c r="K29" t="n">
-        <v>573.4597337924337</v>
+        <v>573.4597337924333</v>
       </c>
       <c r="L29" t="n">
-        <v>1001.599106522049</v>
+        <v>1001.599106522048</v>
       </c>
       <c r="M29" t="n">
-        <v>1477.503810042796</v>
+        <v>1477.503810042795</v>
       </c>
       <c r="N29" t="n">
-        <v>1943.338378751563</v>
+        <v>1943.338378751561</v>
       </c>
       <c r="O29" t="n">
-        <v>2344.84590033393</v>
+        <v>2344.845900333928</v>
       </c>
       <c r="P29" t="n">
-        <v>2670.991319511552</v>
+        <v>2670.991319511554</v>
       </c>
       <c r="Q29" t="n">
-        <v>2873.418517974572</v>
+        <v>2873.418517974575</v>
       </c>
       <c r="R29" t="n">
-        <v>2906.658066680981</v>
+        <v>2906.658066680983</v>
       </c>
       <c r="S29" t="n">
-        <v>2853.547039353849</v>
+        <v>2853.547039353851</v>
       </c>
       <c r="T29" t="n">
-        <v>2772.8771403935</v>
+        <v>2772.877140393501</v>
       </c>
       <c r="U29" t="n">
-        <v>2661.005502859269</v>
+        <v>2661.005502859271</v>
       </c>
       <c r="V29" t="n">
-        <v>2471.255372071981</v>
+        <v>2471.255372071983</v>
       </c>
       <c r="W29" t="n">
-        <v>2259.286154943242</v>
+        <v>2259.286154943244</v>
       </c>
       <c r="X29" t="n">
-        <v>2026.780087177519</v>
+        <v>2026.78008717752</v>
       </c>
       <c r="Y29" t="n">
-        <v>1778.288693532941</v>
+        <v>1778.288693532942</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>866.8159401169955</v>
+        <v>788.5653204137635</v>
       </c>
       <c r="C30" t="n">
-        <v>694.0628250388127</v>
+        <v>645.3850291109584</v>
       </c>
       <c r="D30" t="n">
-        <v>546.4745183977566</v>
+        <v>497.7967224699022</v>
       </c>
       <c r="E30" t="n">
-        <v>388.8649894006113</v>
+        <v>340.1871934727569</v>
       </c>
       <c r="F30" t="n">
-        <v>243.9091994172282</v>
+        <v>195.2314034893737</v>
       </c>
       <c r="G30" t="n">
-        <v>243.9091994172282</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="H30" t="n">
-        <v>135.2180307026974</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="I30" t="n">
-        <v>58.13316133361962</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="J30" t="n">
-        <v>93.20769323959513</v>
+        <v>93.20769323959517</v>
       </c>
       <c r="K30" t="n">
-        <v>279.7612680884366</v>
+        <v>279.7612680884367</v>
       </c>
       <c r="L30" t="n">
         <v>591.4551785769672</v>
@@ -6564,28 +6564,28 @@
         <v>2161.629577505771</v>
       </c>
       <c r="R30" t="n">
-        <v>2084.538577504725</v>
+        <v>2161.629577505771</v>
       </c>
       <c r="S30" t="n">
-        <v>2061.524565717433</v>
+        <v>1996.513957594132</v>
       </c>
       <c r="T30" t="n">
-        <v>1862.343107307111</v>
+        <v>1797.332499183809</v>
       </c>
       <c r="U30" t="n">
-        <v>1777.537941046117</v>
+        <v>1570.425724798468</v>
       </c>
       <c r="V30" t="n">
-        <v>1556.526709151648</v>
+        <v>1336.174481324069</v>
       </c>
       <c r="W30" t="n">
-        <v>1304.012217484981</v>
+        <v>1083.659989657402</v>
       </c>
       <c r="X30" t="n">
-        <v>1239.586927014905</v>
+        <v>1019.234699187327</v>
       </c>
       <c r="Y30" t="n">
-        <v>1033.858491238556</v>
+        <v>813.5062634109771</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.2021042620804</v>
+        <v>157.2021042620818</v>
       </c>
       <c r="C31" t="n">
-        <v>130.2768912437988</v>
+        <v>130.2768912438</v>
       </c>
       <c r="D31" t="n">
-        <v>121.8678261211565</v>
+        <v>121.8678261211576</v>
       </c>
       <c r="E31" t="n">
-        <v>115.5102179089387</v>
+        <v>115.5102179089396</v>
       </c>
       <c r="F31" t="n">
-        <v>109.9764508718671</v>
+        <v>109.9764508718677</v>
       </c>
       <c r="G31" t="n">
-        <v>82.74323677705085</v>
+        <v>82.74323677705131</v>
       </c>
       <c r="H31" t="n">
-        <v>63.80635531119212</v>
+        <v>63.80635531119237</v>
       </c>
       <c r="I31" t="n">
-        <v>58.13316133361962</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="J31" t="n">
-        <v>126.8227994928102</v>
+        <v>126.8227994928101</v>
       </c>
       <c r="K31" t="n">
-        <v>280.0080996041817</v>
+        <v>280.0080996041813</v>
       </c>
       <c r="L31" t="n">
-        <v>492.8874492021943</v>
+        <v>452.3452874966247</v>
       </c>
       <c r="M31" t="n">
-        <v>720.3608813704518</v>
+        <v>679.8187196648821</v>
       </c>
       <c r="N31" t="n">
-        <v>811.6045988638155</v>
+        <v>771.0624371582458</v>
       </c>
       <c r="O31" t="n">
-        <v>880.5463436371359</v>
+        <v>840.0041819315662</v>
       </c>
       <c r="P31" t="n">
-        <v>916.3154349508584</v>
+        <v>875.7732732452887</v>
       </c>
       <c r="Q31" t="n">
-        <v>956.6524463329462</v>
+        <v>956.6524463329496</v>
       </c>
       <c r="R31" t="n">
-        <v>934.8803190635082</v>
+        <v>934.8803190635114</v>
       </c>
       <c r="S31" t="n">
-        <v>856.7461288505374</v>
+        <v>856.7461288505403</v>
       </c>
       <c r="T31" t="n">
-        <v>769.2797182375867</v>
+        <v>769.2797182375895</v>
       </c>
       <c r="U31" t="n">
-        <v>622.4533093424825</v>
+        <v>622.453309342485</v>
       </c>
       <c r="V31" t="n">
-        <v>509.0636537628506</v>
+        <v>509.0636537628529</v>
       </c>
       <c r="W31" t="n">
-        <v>362.1828609908183</v>
+        <v>362.1828609908204</v>
       </c>
       <c r="X31" t="n">
-        <v>275.8598631229338</v>
+        <v>275.8598631229356</v>
       </c>
       <c r="Y31" t="n">
-        <v>197.0032148151917</v>
+        <v>197.0032148151934</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1532.797968332647</v>
+        <v>1532.797968332648</v>
       </c>
       <c r="C32" t="n">
-        <v>1304.207560619678</v>
+        <v>1304.207560619679</v>
       </c>
       <c r="D32" t="n">
-        <v>1086.102367981804</v>
+        <v>1086.102367981805</v>
       </c>
       <c r="E32" t="n">
-        <v>841.2160612018206</v>
+        <v>841.2160612018212</v>
       </c>
       <c r="F32" t="n">
-        <v>571.9097264165302</v>
+        <v>571.9097264165307</v>
       </c>
       <c r="G32" t="n">
-        <v>295.524833811666</v>
+        <v>295.5248338116667</v>
       </c>
       <c r="H32" t="n">
-        <v>101.7889025084677</v>
+        <v>101.7889025084678</v>
       </c>
       <c r="I32" t="n">
-        <v>58.13316133361962</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="J32" t="n">
-        <v>243.2309915298677</v>
+        <v>243.2309915298707</v>
       </c>
       <c r="K32" t="n">
-        <v>573.4597337924304</v>
+        <v>573.4597337924329</v>
       </c>
       <c r="L32" t="n">
-        <v>1001.599106522046</v>
+        <v>1001.599106522048</v>
       </c>
       <c r="M32" t="n">
-        <v>1477.503810042792</v>
+        <v>1477.503810042795</v>
       </c>
       <c r="N32" t="n">
-        <v>1943.338378751559</v>
+        <v>1943.338378751561</v>
       </c>
       <c r="O32" t="n">
-        <v>2344.845900333926</v>
+        <v>2344.845900333928</v>
       </c>
       <c r="P32" t="n">
-        <v>2670.991319511552</v>
+        <v>2670.991319511554</v>
       </c>
       <c r="Q32" t="n">
-        <v>2873.418517974572</v>
+        <v>2873.418517974575</v>
       </c>
       <c r="R32" t="n">
-        <v>2906.658066680981</v>
+        <v>2906.658066680983</v>
       </c>
       <c r="S32" t="n">
-        <v>2853.547039353849</v>
+        <v>2853.547039353851</v>
       </c>
       <c r="T32" t="n">
-        <v>2772.8771403935</v>
+        <v>2772.877140393502</v>
       </c>
       <c r="U32" t="n">
-        <v>2661.00550285927</v>
+        <v>2661.005502859271</v>
       </c>
       <c r="V32" t="n">
-        <v>2471.255372071981</v>
+        <v>2471.255372071982</v>
       </c>
       <c r="W32" t="n">
-        <v>2259.286154943243</v>
+        <v>2259.286154943244</v>
       </c>
       <c r="X32" t="n">
-        <v>2026.78008717752</v>
+        <v>2026.780087177521</v>
       </c>
       <c r="Y32" t="n">
         <v>1778.288693532942</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>582.6127238683016</v>
+        <v>505.5278544992241</v>
       </c>
       <c r="C33" t="n">
-        <v>409.8596087901188</v>
+        <v>332.7747394210413</v>
       </c>
       <c r="D33" t="n">
-        <v>262.2713021490626</v>
+        <v>185.1864327799852</v>
       </c>
       <c r="E33" t="n">
-        <v>246.7633812762643</v>
+        <v>169.6785119071867</v>
       </c>
       <c r="F33" t="n">
-        <v>243.9091994172282</v>
+        <v>166.8243300481504</v>
       </c>
       <c r="G33" t="n">
-        <v>243.9091994172282</v>
+        <v>166.8243300481504</v>
       </c>
       <c r="H33" t="n">
-        <v>135.2180307026974</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="I33" t="n">
-        <v>58.13316133361962</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="J33" t="n">
-        <v>93.20769323959513</v>
+        <v>93.20769323959517</v>
       </c>
       <c r="K33" t="n">
-        <v>279.7612680884366</v>
+        <v>279.7612680884367</v>
       </c>
       <c r="L33" t="n">
         <v>591.4551785769672</v>
@@ -6801,28 +6801,28 @@
         <v>2161.629577505771</v>
       </c>
       <c r="R33" t="n">
-        <v>2084.538577504725</v>
+        <v>2161.629577505771</v>
       </c>
       <c r="S33" t="n">
-        <v>1932.662969173017</v>
+        <v>1997.679707928286</v>
       </c>
       <c r="T33" t="n">
-        <v>1733.481510762694</v>
+        <v>1798.498249517964</v>
       </c>
       <c r="U33" t="n">
-        <v>1506.574736377353</v>
+        <v>1571.591475132623</v>
       </c>
       <c r="V33" t="n">
-        <v>1272.323492902954</v>
+        <v>1337.340231658224</v>
       </c>
       <c r="W33" t="n">
-        <v>1161.910609360634</v>
+        <v>1084.825739991557</v>
       </c>
       <c r="X33" t="n">
-        <v>955.3837107662116</v>
+        <v>878.2988413971342</v>
       </c>
       <c r="Y33" t="n">
-        <v>749.6552749898621</v>
+        <v>672.5704056207846</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>157.2021042620808</v>
+        <v>157.2021042620818</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2768912437991</v>
+        <v>130.2768912438</v>
       </c>
       <c r="D34" t="n">
-        <v>121.8678261211568</v>
+        <v>121.8678261211576</v>
       </c>
       <c r="E34" t="n">
-        <v>115.510217908939</v>
+        <v>115.5102179089396</v>
       </c>
       <c r="F34" t="n">
-        <v>109.9764508718672</v>
+        <v>109.9764508718677</v>
       </c>
       <c r="G34" t="n">
-        <v>82.74323677705097</v>
+        <v>82.74323677705131</v>
       </c>
       <c r="H34" t="n">
-        <v>63.80635531119218</v>
+        <v>63.80635531119237</v>
       </c>
       <c r="I34" t="n">
-        <v>58.13316133361962</v>
+        <v>58.13316133361967</v>
       </c>
       <c r="J34" t="n">
-        <v>58.13316133361962</v>
+        <v>86.28063778724109</v>
       </c>
       <c r="K34" t="n">
-        <v>72.04467532231857</v>
+        <v>239.4659378986124</v>
       </c>
       <c r="L34" t="n">
-        <v>145.6502387976586</v>
+        <v>313.0715013739525</v>
       </c>
       <c r="M34" t="n">
-        <v>342.8765343845232</v>
+        <v>401.2711474195375</v>
       </c>
       <c r="N34" t="n">
-        <v>573.3940380005592</v>
+        <v>492.5148649129011</v>
       </c>
       <c r="O34" t="n">
-        <v>781.6095688965522</v>
+        <v>700.7303958088939</v>
       </c>
       <c r="P34" t="n">
-        <v>956.6524463329472</v>
+        <v>875.7732732452887</v>
       </c>
       <c r="Q34" t="n">
-        <v>956.6524463329472</v>
+        <v>956.6524463329496</v>
       </c>
       <c r="R34" t="n">
-        <v>934.8803190635091</v>
+        <v>934.8803190635114</v>
       </c>
       <c r="S34" t="n">
-        <v>856.7461288505382</v>
+        <v>856.7461288505403</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2797182375875</v>
+        <v>769.2797182375895</v>
       </c>
       <c r="U34" t="n">
-        <v>622.4533093424832</v>
+        <v>622.453309342485</v>
       </c>
       <c r="V34" t="n">
-        <v>509.0636537628512</v>
+        <v>509.0636537628529</v>
       </c>
       <c r="W34" t="n">
-        <v>362.1828609908189</v>
+        <v>362.1828609908204</v>
       </c>
       <c r="X34" t="n">
-        <v>275.8598631229343</v>
+        <v>275.8598631229356</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.0032148151922</v>
+        <v>197.0032148151934</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1154.410550465317</v>
+        <v>1154.410550465316</v>
       </c>
       <c r="C35" t="n">
-        <v>978.9311700794802</v>
+        <v>978.9311700794801</v>
       </c>
       <c r="D35" t="n">
         <v>813.9370047687389</v>
@@ -6932,31 +6932,31 @@
         <v>42.06764860393186</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06764860393186</v>
+        <v>51.33477456178573</v>
       </c>
       <c r="J35" t="n">
-        <v>279.2195966835054</v>
+        <v>97.15881863536444</v>
       </c>
       <c r="K35" t="n">
-        <v>470.1745528233956</v>
+        <v>288.1137747752546</v>
       </c>
       <c r="L35" t="n">
-        <v>759.0401394303385</v>
+        <v>576.9793613821976</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.671056828413</v>
+        <v>913.6102787802718</v>
       </c>
       <c r="N35" t="n">
-        <v>1422.231839414507</v>
+        <v>1240.171061366366</v>
       </c>
       <c r="O35" t="n">
-        <v>1684.465574874201</v>
+        <v>1693.732700832055</v>
       </c>
       <c r="P35" t="n">
-        <v>1871.337207929155</v>
+        <v>1880.604333887009</v>
       </c>
       <c r="Q35" t="n">
-        <v>2103.382430196593</v>
+        <v>2018.088763606862</v>
       </c>
       <c r="R35" t="n">
         <v>2103.382430196593</v>
@@ -6965,10 +6965,10 @@
         <v>2103.382430196593</v>
       </c>
       <c r="T35" t="n">
-        <v>2075.823558563376</v>
+        <v>2075.823558563375</v>
       </c>
       <c r="U35" t="n">
-        <v>2017.062948356278</v>
+        <v>2017.062948356277</v>
       </c>
       <c r="V35" t="n">
         <v>1880.423844896121</v>
@@ -6977,10 +6977,10 @@
         <v>1721.565655094515</v>
       </c>
       <c r="X35" t="n">
-        <v>1542.170614655925</v>
+        <v>1542.170614655924</v>
       </c>
       <c r="Y35" t="n">
-        <v>1346.790248338479</v>
+        <v>1346.790248338478</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>731.2791434278861</v>
+        <v>738.0106850958014</v>
       </c>
       <c r="C36" t="n">
-        <v>657.4860254677337</v>
+        <v>738.0106850958014</v>
       </c>
       <c r="D36" t="n">
-        <v>509.8977188266776</v>
+        <v>590.4223784547452</v>
       </c>
       <c r="E36" t="n">
-        <v>509.8977188266776</v>
+        <v>432.8128494575999</v>
       </c>
       <c r="F36" t="n">
-        <v>364.9419288432945</v>
+        <v>287.8570594742167</v>
       </c>
       <c r="G36" t="n">
-        <v>227.8436866875404</v>
+        <v>150.7588173184626</v>
       </c>
       <c r="H36" t="n">
-        <v>119.1525179730097</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="I36" t="n">
         <v>42.06764860393186</v>
       </c>
       <c r="J36" t="n">
-        <v>77.14218050990736</v>
+        <v>77.14218050990738</v>
       </c>
       <c r="K36" t="n">
-        <v>263.6957553587489</v>
+        <v>221.5141207792594</v>
       </c>
       <c r="L36" t="n">
-        <v>533.2080312677896</v>
+        <v>533.20803126779</v>
       </c>
       <c r="M36" t="n">
-        <v>949.7403172306515</v>
+        <v>949.740317230652</v>
       </c>
       <c r="N36" t="n">
         <v>1392.695705375883</v>
       </c>
       <c r="O36" t="n">
-        <v>1730.285328476233</v>
+        <v>1730.285328476234</v>
       </c>
       <c r="P36" t="n">
-        <v>1984.804222362486</v>
+        <v>1984.804222362487</v>
       </c>
       <c r="Q36" t="n">
         <v>2103.382430196593</v>
       </c>
       <c r="R36" t="n">
-        <v>2026.291430195547</v>
+        <v>2063.119987403303</v>
       </c>
       <c r="S36" t="n">
-        <v>1861.175810283908</v>
+        <v>2063.119987403303</v>
       </c>
       <c r="T36" t="n">
-        <v>1661.994351873586</v>
+        <v>1863.938528992981</v>
       </c>
       <c r="U36" t="n">
-        <v>1435.087577488245</v>
+        <v>1637.031754607639</v>
       </c>
       <c r="V36" t="n">
-        <v>1200.836334013846</v>
+        <v>1402.78051113324</v>
       </c>
       <c r="W36" t="n">
-        <v>948.3218423471789</v>
+        <v>1150.266019466573</v>
       </c>
       <c r="X36" t="n">
-        <v>741.7949437527564</v>
+        <v>943.7391208721509</v>
       </c>
       <c r="Y36" t="n">
-        <v>731.2791434278861</v>
+        <v>738.0106850958014</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.63901273557169</v>
+        <v>47.63901273557216</v>
       </c>
       <c r="C37" t="n">
-        <v>47.63901273557169</v>
+        <v>47.63901273557216</v>
       </c>
       <c r="D37" t="n">
-        <v>47.63901273557169</v>
+        <v>47.63901273557216</v>
       </c>
       <c r="E37" t="n">
-        <v>47.63901273557169</v>
+        <v>47.63901273557216</v>
       </c>
       <c r="F37" t="n">
-        <v>42.06764860393186</v>
+        <v>47.63901273557216</v>
       </c>
       <c r="G37" t="n">
-        <v>42.06764860393186</v>
+        <v>47.63901273557216</v>
       </c>
       <c r="H37" t="n">
-        <v>42.06764860393186</v>
+        <v>47.63901273557216</v>
       </c>
       <c r="I37" t="n">
-        <v>42.06764860393186</v>
+        <v>47.63901273557216</v>
       </c>
       <c r="J37" t="n">
         <v>42.06764860393186</v>
@@ -7120,25 +7120,25 @@
         <v>413.7389256939625</v>
       </c>
       <c r="S37" t="n">
-        <v>388.7157628081239</v>
+        <v>388.7157628081241</v>
       </c>
       <c r="T37" t="n">
-        <v>354.3603795223055</v>
+        <v>354.3603795223057</v>
       </c>
       <c r="U37" t="n">
-        <v>260.6449979543336</v>
+        <v>260.6449979543338</v>
       </c>
       <c r="V37" t="n">
-        <v>200.3663697018339</v>
+        <v>200.3663697018342</v>
       </c>
       <c r="W37" t="n">
-        <v>106.5966042569338</v>
+        <v>106.5966042569342</v>
       </c>
       <c r="X37" t="n">
-        <v>73.38463371618153</v>
+        <v>73.38463371618194</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.63901273557169</v>
+        <v>47.63901273557216</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1154.410550465317</v>
+        <v>1154.410550465316</v>
       </c>
       <c r="C38" t="n">
-        <v>978.9311700794801</v>
+        <v>978.9311700794797</v>
       </c>
       <c r="D38" t="n">
-        <v>813.9370047687389</v>
+        <v>813.9370047687385</v>
       </c>
       <c r="E38" t="n">
-        <v>622.1617253158875</v>
+        <v>622.161725315887</v>
       </c>
       <c r="F38" t="n">
-        <v>405.9664178577295</v>
+        <v>405.9664178577291</v>
       </c>
       <c r="G38" t="n">
-        <v>182.6925525799979</v>
+        <v>182.6925525799978</v>
       </c>
       <c r="H38" t="n">
         <v>42.06764860393186</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06764860393186</v>
+        <v>51.33477456178572</v>
       </c>
       <c r="J38" t="n">
-        <v>87.89169267751058</v>
+        <v>97.15881863536444</v>
       </c>
       <c r="K38" t="n">
-        <v>278.8466488174008</v>
+        <v>288.1137747752546</v>
       </c>
       <c r="L38" t="n">
-        <v>567.7122354243437</v>
+        <v>768.3072653881925</v>
       </c>
       <c r="M38" t="n">
-        <v>904.3431528224179</v>
+        <v>1104.938182786267</v>
       </c>
       <c r="N38" t="n">
-        <v>1230.903935408512</v>
+        <v>1431.498965372361</v>
       </c>
       <c r="O38" t="n">
-        <v>1493.137670868207</v>
+        <v>1693.732700832055</v>
       </c>
       <c r="P38" t="n">
-        <v>1848.90111385025</v>
+        <v>1954.935351266514</v>
       </c>
       <c r="Q38" t="n">
-        <v>2103.382430196593</v>
+        <v>2018.088763606862</v>
       </c>
       <c r="R38" t="n">
         <v>2103.382430196593</v>
@@ -7202,22 +7202,22 @@
         <v>2103.382430196593</v>
       </c>
       <c r="T38" t="n">
-        <v>2075.823558563376</v>
+        <v>2075.823558563375</v>
       </c>
       <c r="U38" t="n">
-        <v>2017.062948356278</v>
+        <v>2017.062948356277</v>
       </c>
       <c r="V38" t="n">
-        <v>1880.423844896122</v>
+        <v>1880.423844896121</v>
       </c>
       <c r="W38" t="n">
         <v>1721.565655094515</v>
       </c>
       <c r="X38" t="n">
-        <v>1542.170614655925</v>
+        <v>1542.170614655924</v>
       </c>
       <c r="Y38" t="n">
-        <v>1346.790248338479</v>
+        <v>1346.790248338478</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>926.4917788793651</v>
+        <v>369.0239568548463</v>
       </c>
       <c r="C39" t="n">
-        <v>753.7386638011824</v>
+        <v>369.0239568548463</v>
       </c>
       <c r="D39" t="n">
-        <v>606.1503571601263</v>
+        <v>369.0239568548463</v>
       </c>
       <c r="E39" t="n">
-        <v>448.540828162981</v>
+        <v>369.0239568548463</v>
       </c>
       <c r="F39" t="n">
-        <v>303.5850381795979</v>
+        <v>224.0681668714632</v>
       </c>
       <c r="G39" t="n">
-        <v>166.4867960238438</v>
+        <v>224.0681668714632</v>
       </c>
       <c r="H39" t="n">
-        <v>57.79562730931299</v>
+        <v>119.1525179730097</v>
       </c>
       <c r="I39" t="n">
         <v>42.06764860393186</v>
       </c>
       <c r="J39" t="n">
-        <v>77.14218050990736</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="K39" t="n">
-        <v>263.6957553587489</v>
+        <v>221.514120779259</v>
       </c>
       <c r="L39" t="n">
-        <v>575.3896658472795</v>
+        <v>533.2080312677896</v>
       </c>
       <c r="M39" t="n">
         <v>949.7403172306515</v>
@@ -7281,22 +7281,22 @@
         <v>1861.175810283908</v>
       </c>
       <c r="T39" t="n">
-        <v>1857.206987325065</v>
+        <v>1661.994351873586</v>
       </c>
       <c r="U39" t="n">
-        <v>1630.300212939724</v>
+        <v>1435.087577488245</v>
       </c>
       <c r="V39" t="n">
-        <v>1396.048969465325</v>
+        <v>1200.836334013846</v>
       </c>
       <c r="W39" t="n">
-        <v>1338.747113250137</v>
+        <v>948.3218423471789</v>
       </c>
       <c r="X39" t="n">
-        <v>1132.220214655715</v>
+        <v>741.7949437527564</v>
       </c>
       <c r="Y39" t="n">
-        <v>926.4917788793651</v>
+        <v>536.0665079764068</v>
       </c>
     </row>
     <row r="40">
@@ -7357,25 +7357,25 @@
         <v>413.7389256939625</v>
       </c>
       <c r="S40" t="n">
-        <v>388.7157628081239</v>
+        <v>388.7157628081241</v>
       </c>
       <c r="T40" t="n">
-        <v>354.3603795223055</v>
+        <v>354.3603795223057</v>
       </c>
       <c r="U40" t="n">
-        <v>255.0736338226938</v>
+        <v>260.6449979543338</v>
       </c>
       <c r="V40" t="n">
-        <v>194.7950055701941</v>
+        <v>200.3663697018342</v>
       </c>
       <c r="W40" t="n">
-        <v>101.025240125294</v>
+        <v>106.5966042569342</v>
       </c>
       <c r="X40" t="n">
-        <v>67.8132695845417</v>
+        <v>73.38463371618194</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.06764860393186</v>
+        <v>47.63901273557216</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1154.410550465316</v>
       </c>
       <c r="C41" t="n">
-        <v>978.9311700794799</v>
+        <v>978.9311700794797</v>
       </c>
       <c r="D41" t="n">
-        <v>813.9370047687387</v>
+        <v>813.9370047687385</v>
       </c>
       <c r="E41" t="n">
-        <v>622.1617253158872</v>
+        <v>622.161725315887</v>
       </c>
       <c r="F41" t="n">
-        <v>405.9664178577293</v>
+        <v>405.9664178577291</v>
       </c>
       <c r="G41" t="n">
         <v>182.6925525799979</v>
@@ -7406,19 +7406,19 @@
         <v>42.06764860393186</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06764860393186</v>
+        <v>51.33477456178573</v>
       </c>
       <c r="J41" t="n">
-        <v>171.4898360148698</v>
+        <v>288.4867226413593</v>
       </c>
       <c r="K41" t="n">
-        <v>362.44479215476</v>
+        <v>553.7726961607548</v>
       </c>
       <c r="L41" t="n">
-        <v>651.310378761703</v>
+        <v>842.6382827676978</v>
       </c>
       <c r="M41" t="n">
-        <v>987.9412961597772</v>
+        <v>1179.269200165772</v>
       </c>
       <c r="N41" t="n">
         <v>1505.829982751866</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>850.7504273873078</v>
+        <v>664.9743893036992</v>
       </c>
       <c r="C42" t="n">
-        <v>677.9973123091249</v>
+        <v>492.2212742255164</v>
       </c>
       <c r="D42" t="n">
-        <v>530.4090056680689</v>
+        <v>344.6329675844603</v>
       </c>
       <c r="E42" t="n">
-        <v>372.7994766709236</v>
+        <v>187.023438587315</v>
       </c>
       <c r="F42" t="n">
-        <v>227.8436866875404</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="G42" t="n">
-        <v>227.8436866875404</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="H42" t="n">
-        <v>119.1525179730097</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="I42" t="n">
         <v>42.06764860393186</v>
       </c>
       <c r="J42" t="n">
-        <v>77.14218050990738</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="K42" t="n">
-        <v>263.6957553587489</v>
+        <v>228.6212234527734</v>
       </c>
       <c r="L42" t="n">
-        <v>575.3896658472795</v>
+        <v>540.315133941304</v>
       </c>
       <c r="M42" t="n">
-        <v>991.9219518101414</v>
+        <v>949.740317230652</v>
       </c>
       <c r="N42" t="n">
-        <v>1434.877339955373</v>
+        <v>1392.695705375883</v>
       </c>
       <c r="O42" t="n">
-        <v>1772.466963055723</v>
+        <v>1730.285328476234</v>
       </c>
       <c r="P42" t="n">
-        <v>2026.985856941976</v>
+        <v>1984.804222362487</v>
       </c>
       <c r="Q42" t="n">
         <v>2103.382430196593</v>
       </c>
       <c r="R42" t="n">
-        <v>2026.291430195547</v>
+        <v>2103.382430196593</v>
       </c>
       <c r="S42" t="n">
-        <v>2026.291430195547</v>
+        <v>2103.382430196593</v>
       </c>
       <c r="T42" t="n">
-        <v>1827.109971785225</v>
+        <v>1957.944784322439</v>
       </c>
       <c r="U42" t="n">
-        <v>1721.601412569227</v>
+        <v>1731.038009937098</v>
       </c>
       <c r="V42" t="n">
-        <v>1487.350169094828</v>
+        <v>1496.786766462698</v>
       </c>
       <c r="W42" t="n">
-        <v>1234.835677428161</v>
+        <v>1244.272274796032</v>
       </c>
       <c r="X42" t="n">
-        <v>1028.308778833738</v>
+        <v>1037.745376201609</v>
       </c>
       <c r="Y42" t="n">
-        <v>1017.792978508868</v>
+        <v>832.0169404252597</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.63901273557216</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="C43" t="n">
-        <v>47.63901273557216</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="D43" t="n">
-        <v>47.63901273557216</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="E43" t="n">
-        <v>47.63901273557216</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="F43" t="n">
         <v>42.06764860393186</v>
@@ -7597,22 +7597,22 @@
         <v>388.7157628081241</v>
       </c>
       <c r="T43" t="n">
-        <v>354.3603795223057</v>
+        <v>348.7890153906654</v>
       </c>
       <c r="U43" t="n">
-        <v>260.6449979543338</v>
+        <v>255.0736338226935</v>
       </c>
       <c r="V43" t="n">
-        <v>200.3663697018342</v>
+        <v>194.7950055701939</v>
       </c>
       <c r="W43" t="n">
-        <v>106.5966042569342</v>
+        <v>101.0252401252939</v>
       </c>
       <c r="X43" t="n">
-        <v>73.38463371618194</v>
+        <v>67.81326958454164</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.63901273557216</v>
+        <v>42.06764860393186</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>42.06764860393186</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06764860393186</v>
+        <v>51.33477456178566</v>
       </c>
       <c r="J44" t="n">
-        <v>171.48983601487</v>
+        <v>97.15881863536437</v>
       </c>
       <c r="K44" t="n">
-        <v>362.4447921547602</v>
+        <v>288.1137747752546</v>
       </c>
       <c r="L44" t="n">
-        <v>651.3103787617031</v>
+        <v>576.9793613821975</v>
       </c>
       <c r="M44" t="n">
-        <v>987.9412961597773</v>
+        <v>987.941296159777</v>
       </c>
       <c r="N44" t="n">
         <v>1314.502078745871</v>
       </c>
       <c r="O44" t="n">
-        <v>1768.063718211561</v>
+        <v>1576.735814205566</v>
       </c>
       <c r="P44" t="n">
         <v>1954.935351266514</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576.5921818480027</v>
+        <v>611.2305767675313</v>
       </c>
       <c r="C45" t="n">
-        <v>403.8390667698199</v>
+        <v>611.2305767675313</v>
       </c>
       <c r="D45" t="n">
-        <v>256.2507601287638</v>
+        <v>463.6422701264751</v>
       </c>
       <c r="E45" t="n">
-        <v>256.2507601287638</v>
+        <v>306.0327411293298</v>
       </c>
       <c r="F45" t="n">
-        <v>256.2507601287638</v>
+        <v>161.0769511459467</v>
       </c>
       <c r="G45" t="n">
         <v>119.1525179730097</v>
@@ -7725,52 +7725,52 @@
         <v>42.06764860393186</v>
       </c>
       <c r="J45" t="n">
-        <v>42.06764860393186</v>
+        <v>77.14218050990736</v>
       </c>
       <c r="K45" t="n">
-        <v>228.6212234527734</v>
+        <v>263.6957553587488</v>
       </c>
       <c r="L45" t="n">
-        <v>540.3151339413039</v>
+        <v>575.3896658472794</v>
       </c>
       <c r="M45" t="n">
-        <v>956.8474199041658</v>
+        <v>949.7403172306522</v>
       </c>
       <c r="N45" t="n">
-        <v>1399.802808049397</v>
+        <v>1392.695705375884</v>
       </c>
       <c r="O45" t="n">
-        <v>1737.392431149748</v>
+        <v>1730.285328476234</v>
       </c>
       <c r="P45" t="n">
-        <v>1991.911325036</v>
+        <v>1984.804222362487</v>
       </c>
       <c r="Q45" t="n">
         <v>2103.382430196593</v>
       </c>
       <c r="R45" t="n">
-        <v>2038.647019737224</v>
+        <v>2103.382430196593</v>
       </c>
       <c r="S45" t="n">
-        <v>1873.531399825585</v>
+        <v>2103.382430196593</v>
       </c>
       <c r="T45" t="n">
-        <v>1674.349941415263</v>
+        <v>1904.200971786271</v>
       </c>
       <c r="U45" t="n">
-        <v>1447.443167029922</v>
+        <v>1677.29419740093</v>
       </c>
       <c r="V45" t="n">
-        <v>1213.191923555523</v>
+        <v>1443.042953926531</v>
       </c>
       <c r="W45" t="n">
-        <v>960.6774318888559</v>
+        <v>1190.528462259864</v>
       </c>
       <c r="X45" t="n">
-        <v>754.1505332944334</v>
+        <v>984.0015636654413</v>
       </c>
       <c r="Y45" t="n">
-        <v>743.6347329695632</v>
+        <v>778.2731278890917</v>
       </c>
     </row>
     <row r="46">
@@ -7825,31 +7825,31 @@
         <v>413.7389256939624</v>
       </c>
       <c r="Q46" t="n">
-        <v>408.1675615623227</v>
+        <v>413.7389256939624</v>
       </c>
       <c r="R46" t="n">
-        <v>408.1675615623227</v>
+        <v>413.7389256939624</v>
       </c>
       <c r="S46" t="n">
-        <v>383.1443986764842</v>
+        <v>388.7157628081238</v>
       </c>
       <c r="T46" t="n">
-        <v>348.7890153906658</v>
+        <v>354.3603795223054</v>
       </c>
       <c r="U46" t="n">
-        <v>255.0736338226938</v>
+        <v>260.6449979543335</v>
       </c>
       <c r="V46" t="n">
-        <v>194.7950055701941</v>
+        <v>200.3663697018338</v>
       </c>
       <c r="W46" t="n">
-        <v>101.025240125294</v>
+        <v>106.5966042569337</v>
       </c>
       <c r="X46" t="n">
-        <v>67.8132695845417</v>
+        <v>73.38463371618141</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.06764860393186</v>
+        <v>47.63901273557158</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>129.5735665733216</v>
+        <v>129.5735665733217</v>
       </c>
       <c r="K11" t="n">
         <v>144.2274349933142</v>
       </c>
       <c r="L11" t="n">
-        <v>343.4031514384716</v>
+        <v>142.5842423173746</v>
       </c>
       <c r="M11" t="n">
-        <v>127.4628451375214</v>
+        <v>268.4362171573471</v>
       </c>
       <c r="N11" t="n">
-        <v>325.8003341599706</v>
+        <v>325.800334159971</v>
       </c>
       <c r="O11" t="n">
-        <v>331.9685365639536</v>
+        <v>331.9685365639541</v>
       </c>
       <c r="P11" t="n">
-        <v>274.8251193970696</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8772,22 +8772,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>271.650534409896</v>
+        <v>70.83162528879896</v>
       </c>
       <c r="M12" t="n">
-        <v>63.59358350923029</v>
+        <v>63.5935835092303</v>
       </c>
       <c r="N12" t="n">
-        <v>51.08638432211245</v>
+        <v>100.9675652372697</v>
       </c>
       <c r="O12" t="n">
-        <v>238.27434117887</v>
+        <v>269.4361018756127</v>
       </c>
       <c r="P12" t="n">
-        <v>274.9303967023358</v>
+        <v>274.9303967023363</v>
       </c>
       <c r="Q12" t="n">
-        <v>98.70441173608454</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789567</v>
+        <v>129.5735665733217</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>144.2274349933142</v>
       </c>
       <c r="L14" t="n">
-        <v>296.9374579552122</v>
+        <v>142.5842423173746</v>
       </c>
       <c r="M14" t="n">
-        <v>328.2817542586184</v>
+        <v>328.2817542586189</v>
       </c>
       <c r="N14" t="n">
-        <v>325.8003341599705</v>
+        <v>265.9547970586992</v>
       </c>
       <c r="O14" t="n">
-        <v>131.1496274428566</v>
+        <v>331.9685365639541</v>
       </c>
       <c r="P14" t="n">
-        <v>145.9114311903078</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.0162646899898</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9006,25 +9006,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>86.60589210031256</v>
+        <v>86.60589210031257</v>
       </c>
       <c r="L15" t="n">
-        <v>70.83162528879895</v>
+        <v>70.83162528879896</v>
       </c>
       <c r="M15" t="n">
-        <v>264.4124926303273</v>
+        <v>101.0938096960592</v>
       </c>
       <c r="N15" t="n">
-        <v>251.9052934432095</v>
+        <v>251.90529344321</v>
       </c>
       <c r="O15" t="n">
-        <v>225.8933864505422</v>
+        <v>269.4361018756127</v>
       </c>
       <c r="P15" t="n">
-        <v>274.9303967023358</v>
+        <v>274.9303967023363</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.70441173608454</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9167,22 +9167,22 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>308.9971417682752</v>
+        <v>245.2058161719654</v>
       </c>
       <c r="M17" t="n">
-        <v>328.2817542586184</v>
+        <v>127.4628451375214</v>
       </c>
       <c r="N17" t="n">
-        <v>124.9814250388735</v>
+        <v>124.9814250388736</v>
       </c>
       <c r="O17" t="n">
-        <v>131.1496274428566</v>
+        <v>331.9685365639541</v>
       </c>
       <c r="P17" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.0162646899898</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9243,25 +9243,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>86.60589210031256</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>108.3318514756273</v>
+        <v>240.4887737131546</v>
       </c>
       <c r="M18" t="n">
-        <v>264.4124926303273</v>
+        <v>264.4124926303278</v>
       </c>
       <c r="N18" t="n">
-        <v>251.9052934432095</v>
+        <v>251.90529344321</v>
       </c>
       <c r="O18" t="n">
-        <v>68.61719275451524</v>
+        <v>68.61719275451526</v>
       </c>
       <c r="P18" t="n">
-        <v>274.9303967023358</v>
+        <v>74.11148758123883</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>98.70441173608455</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9404,22 +9404,22 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
-        <v>142.5842423173745</v>
+        <v>343.403151438472</v>
       </c>
       <c r="M20" t="n">
-        <v>127.4628451375214</v>
+        <v>281.81606077536</v>
       </c>
       <c r="N20" t="n">
-        <v>325.8003341599706</v>
+        <v>325.800334159971</v>
       </c>
       <c r="O20" t="n">
-        <v>233.7712012974461</v>
+        <v>131.1496274428566</v>
       </c>
       <c r="P20" t="n">
-        <v>334.6706564983419</v>
+        <v>145.9114311903078</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>157.0162646899898</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9480,25 +9480,25 @@
         <v>95.70585664697921</v>
       </c>
       <c r="K21" t="n">
-        <v>86.60589210031256</v>
+        <v>86.60589210031257</v>
       </c>
       <c r="L21" t="n">
-        <v>70.83162528879895</v>
+        <v>263.5366390918722</v>
       </c>
       <c r="M21" t="n">
-        <v>264.4124926303273</v>
+        <v>63.5935835092303</v>
       </c>
       <c r="N21" t="n">
-        <v>251.9052934432095</v>
+        <v>251.90529344321</v>
       </c>
       <c r="O21" t="n">
-        <v>261.3222065575882</v>
+        <v>269.4361018756127</v>
       </c>
       <c r="P21" t="n">
-        <v>274.9303967023358</v>
+        <v>274.9303967023363</v>
       </c>
       <c r="Q21" t="n">
-        <v>98.70441173608454</v>
+        <v>98.70441173608455</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>129.5735665733216</v>
+        <v>129.5735665733217</v>
       </c>
       <c r="K23" t="n">
-        <v>336.932448796387</v>
+        <v>144.2274349933142</v>
       </c>
       <c r="L23" t="n">
-        <v>343.4031514384715</v>
+        <v>343.403151438472</v>
       </c>
       <c r="M23" t="n">
-        <v>328.2817542586183</v>
+        <v>127.4628451375214</v>
       </c>
       <c r="N23" t="n">
-        <v>325.8003341599704</v>
+        <v>265.9547970586992</v>
       </c>
       <c r="O23" t="n">
-        <v>131.1496274428566</v>
+        <v>331.9685365639541</v>
       </c>
       <c r="P23" t="n">
-        <v>145.9114311903078</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
-        <v>157.0162646899898</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9717,25 +9717,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>86.60589210031257</v>
       </c>
       <c r="L24" t="n">
-        <v>70.83162528879895</v>
+        <v>271.6505344098964</v>
       </c>
       <c r="M24" t="n">
-        <v>113.4747644243862</v>
+        <v>220.8697772052577</v>
       </c>
       <c r="N24" t="n">
-        <v>251.9052934432094</v>
+        <v>251.90529344321</v>
       </c>
       <c r="O24" t="n">
-        <v>68.61719275451524</v>
+        <v>68.61719275451526</v>
       </c>
       <c r="P24" t="n">
-        <v>274.9303967023357</v>
+        <v>274.9303967023363</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>98.70441173608455</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10665,10 +10665,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>232.4361347966278</v>
       </c>
       <c r="L36" t="n">
-        <v>343.0662474191431</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10899,16 +10899,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>95.70585664697921</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>267.8649549036733</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>441.7255546035454</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
         <v>498.5160693172957</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>95.70585664697921</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11145,7 +11145,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>484.3332662999999</v>
+        <v>477.1543747105918</v>
       </c>
       <c r="N42" t="n">
         <v>498.5160693172957</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.8726675488291</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>95.70585664697921</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11382,7 +11382,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>484.3332662999999</v>
+        <v>441.7255546035462</v>
       </c>
       <c r="N45" t="n">
         <v>498.5160693172957</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3014876558754</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>203.6219123337313</v>
+        <v>203.6219123337315</v>
       </c>
       <c r="C11" t="n">
-        <v>186.8905980212789</v>
+        <v>46.78535839277238</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5102350969347</v>
+        <v>176.5102350969348</v>
       </c>
       <c r="E11" t="n">
-        <v>203.0235380976237</v>
+        <v>203.0235380976239</v>
       </c>
       <c r="F11" t="n">
-        <v>49.25260421995815</v>
+        <v>227.1993658228773</v>
       </c>
       <c r="G11" t="n">
-        <v>33.38822894315794</v>
+        <v>234.2071380642552</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>13.16601143930097</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.33901554432771</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>148.4387238648556</v>
+        <v>148.4387238648558</v>
       </c>
       <c r="W11" t="n">
-        <v>170.4356193428908</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>190.7671014735058</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.5925740935721</v>
+        <v>5.773664972474791</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.80300321263428</v>
+        <v>2.803003212633968</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>186.890598021279</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>176.5102350969348</v>
       </c>
       <c r="E14" t="n">
-        <v>203.0235380976237</v>
+        <v>203.0235380976239</v>
       </c>
       <c r="F14" t="n">
-        <v>227.1993658228771</v>
+        <v>26.38045670177976</v>
       </c>
       <c r="G14" t="n">
-        <v>33.38822894315794</v>
+        <v>234.2071380642551</v>
       </c>
       <c r="H14" t="n">
-        <v>152.3846663756061</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.671918431094261</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>40.44929435618586</v>
+        <v>40.44929435618602</v>
       </c>
       <c r="U14" t="n">
-        <v>71.33901554432771</v>
+        <v>63.81367635391199</v>
       </c>
       <c r="V14" t="n">
-        <v>148.4387238648556</v>
+        <v>148.4387238648557</v>
       </c>
       <c r="W14" t="n">
-        <v>170.4356193428908</v>
+        <v>170.435619342891</v>
       </c>
       <c r="X14" t="n">
-        <v>190.7671014735056</v>
+        <v>190.7671014735058</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.5925740935721</v>
+        <v>5.773664972474734</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>925271.4036619039</v>
+        <v>925271.403661904</v>
       </c>
     </row>
     <row r="7">
@@ -26314,43 +26314,43 @@
         <v>487293.8266534444</v>
       </c>
       <c r="C2" t="n">
-        <v>487293.8266534443</v>
+        <v>487293.8266534445</v>
       </c>
       <c r="D2" t="n">
         <v>487293.8266534443</v>
       </c>
       <c r="E2" t="n">
-        <v>419123.857122056</v>
+        <v>419123.8571220562</v>
       </c>
       <c r="F2" t="n">
         <v>419123.857122056</v>
       </c>
       <c r="G2" t="n">
+        <v>488351.6451689618</v>
+      </c>
+      <c r="H2" t="n">
+        <v>488351.6451689616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>488351.6451689617</v>
+      </c>
+      <c r="J2" t="n">
         <v>488351.6451689615</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>488351.6451689617</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>488351.6451689615</v>
+      </c>
+      <c r="M2" t="n">
+        <v>488351.6451689617</v>
+      </c>
+      <c r="N2" t="n">
         <v>488351.6451689618</v>
       </c>
-      <c r="J2" t="n">
-        <v>488351.6451689618</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488351.6451689613</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488351.6451689613</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488351.6451689619</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>488351.645168962</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488351.6451689618</v>
       </c>
       <c r="P2" t="n">
         <v>488351.6451689619</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>314576.7352757246</v>
+        <v>314576.7352757245</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>96053.34182327116</v>
+        <v>96053.34182327108</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154075.4799528011</v>
+        <v>154075.4799528009</v>
       </c>
       <c r="K3" t="n">
         <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>96053.3418232711</v>
+        <v>96053.34182327108</v>
       </c>
       <c r="M3" t="n">
-        <v>42063.93364308874</v>
+        <v>42063.93364308895</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16491.13181121174</v>
+        <v>16491.13181121156</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>448535.4477245784</v>
       </c>
       <c r="E4" t="n">
-        <v>334851.6207644779</v>
+        <v>334851.6207644778</v>
       </c>
       <c r="F4" t="n">
-        <v>334851.6207644779</v>
+        <v>334851.6207644778</v>
       </c>
       <c r="G4" t="n">
-        <v>400679.2424625543</v>
+        <v>400679.2424625542</v>
       </c>
       <c r="H4" t="n">
         <v>400679.2424625542</v>
@@ -26439,19 +26439,19 @@
         <v>400679.2424625542</v>
       </c>
       <c r="J4" t="n">
-        <v>394510.0374381136</v>
+        <v>394510.0374381135</v>
       </c>
       <c r="K4" t="n">
-        <v>394510.0374381136</v>
+        <v>394510.0374381135</v>
       </c>
       <c r="L4" t="n">
         <v>394510.0374381135</v>
       </c>
       <c r="M4" t="n">
-        <v>393636.5646292796</v>
+        <v>393636.5646292797</v>
       </c>
       <c r="N4" t="n">
-        <v>393636.5646292796</v>
+        <v>393636.5646292797</v>
       </c>
       <c r="O4" t="n">
         <v>393636.5646292797</v>
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30349.63798073433</v>
+        <v>30349.63798073434</v>
       </c>
       <c r="F5" t="n">
-        <v>30349.63798073433</v>
+        <v>30349.63798073435</v>
       </c>
       <c r="G5" t="n">
-        <v>40443.52347291006</v>
+        <v>40443.52347291007</v>
       </c>
       <c r="H5" t="n">
-        <v>40443.52347291006</v>
+        <v>40443.52347291007</v>
       </c>
       <c r="I5" t="n">
-        <v>40443.52347291005</v>
+        <v>40443.52347291007</v>
       </c>
       <c r="J5" t="n">
-        <v>59007.56328861208</v>
+        <v>59007.5632886121</v>
       </c>
       <c r="K5" t="n">
-        <v>59007.56328861209</v>
+        <v>59007.5632886121</v>
       </c>
       <c r="L5" t="n">
-        <v>59007.56328861208</v>
+        <v>59007.5632886121</v>
       </c>
       <c r="M5" t="n">
-        <v>51218.11466085042</v>
+        <v>51218.11466085044</v>
       </c>
       <c r="N5" t="n">
-        <v>51218.11466085042</v>
+        <v>51218.11466085043</v>
       </c>
       <c r="O5" t="n">
         <v>51218.11466085044</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5130.778928865948</v>
+        <v>5126.371351717958</v>
       </c>
       <c r="C6" t="n">
-        <v>5130.77892886589</v>
+        <v>5126.371351718074</v>
       </c>
       <c r="D6" t="n">
-        <v>5130.77892886589</v>
+        <v>5126.371351717899</v>
       </c>
       <c r="E6" t="n">
-        <v>-260654.1368988808</v>
+        <v>-260942.5860157425</v>
       </c>
       <c r="F6" t="n">
-        <v>53922.59837684374</v>
+        <v>53634.14925998162</v>
       </c>
       <c r="G6" t="n">
-        <v>-48824.462589774</v>
+        <v>-48824.4625897736</v>
       </c>
       <c r="H6" t="n">
-        <v>47228.87923349748</v>
+        <v>47228.87923349729</v>
       </c>
       <c r="I6" t="n">
-        <v>47228.87923349749</v>
+        <v>47228.87923349741</v>
       </c>
       <c r="J6" t="n">
         <v>-119241.435510565</v>
       </c>
       <c r="K6" t="n">
-        <v>34834.04444223558</v>
+        <v>34834.04444223609</v>
       </c>
       <c r="L6" t="n">
-        <v>-61219.29738103542</v>
+        <v>-61219.2973810351</v>
       </c>
       <c r="M6" t="n">
-        <v>1433.032235743143</v>
+        <v>1433.032235742605</v>
       </c>
       <c r="N6" t="n">
-        <v>43496.96587883194</v>
+        <v>43496.9658788317</v>
       </c>
       <c r="O6" t="n">
-        <v>27005.83406761993</v>
+        <v>27005.83406762034</v>
       </c>
       <c r="P6" t="n">
         <v>43496.96587883181</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="F2" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="G2" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="H2" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="I2" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="J2" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="K2" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="L2" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="M2" t="n">
         <v>193.2605090969645</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="F4" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="G4" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="H4" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="I4" t="n">
-        <v>200.8189091210969</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="J4" t="n">
-        <v>726.6645166702452</v>
+        <v>726.6645166702458</v>
       </c>
       <c r="K4" t="n">
-        <v>726.6645166702452</v>
+        <v>726.6645166702458</v>
       </c>
       <c r="L4" t="n">
-        <v>726.6645166702452</v>
+        <v>726.6645166702458</v>
       </c>
       <c r="M4" t="n">
-        <v>525.8456075491482</v>
+        <v>525.8456075491483</v>
       </c>
       <c r="N4" t="n">
         <v>525.8456075491482</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>120.0666772790889</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.61391476401462</v>
+        <v>20.61391476401445</v>
       </c>
       <c r="K2" t="n">
         <v>6.926151959655375e-14</v>
@@ -26938,13 +26938,13 @@
         <v>120.0666772790889</v>
       </c>
       <c r="M2" t="n">
-        <v>52.57991705386092</v>
+        <v>52.57991705386118</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.61391476401468</v>
+        <v>20.61391476401445</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>120.0666772790889</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.61391476401462</v>
+        <v>20.61391476401445</v>
       </c>
       <c r="P2" t="n">
         <v>6.926151959655375e-14</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="C11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="D11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="E11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="F11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="G11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="H11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="I11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>107.1052903194584</v>
       </c>
       <c r="S11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="T11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="U11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="V11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="W11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="X11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
     </row>
     <row r="12">
@@ -28175,19 +28175,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>39.85423702263266</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H12" t="n">
         <v>107.6042570273855</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>76.32009000103538</v>
       </c>
       <c r="S12" t="n">
         <v>163.4644637125223</v>
       </c>
       <c r="T12" t="n">
-        <v>180.0944976576637</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="V12" t="n">
-        <v>180.0944976576637</v>
+        <v>99.09968987255206</v>
       </c>
       <c r="W12" t="n">
-        <v>180.0944976576637</v>
+        <v>49.17043762890256</v>
       </c>
       <c r="X12" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="Y12" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
     </row>
     <row r="13">
@@ -28248,13 +28248,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>180.0944976576637</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="E13" t="n">
-        <v>180.0944976576637</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
@@ -28269,10 +28269,10 @@
         <v>146.2970540809003</v>
       </c>
       <c r="J13" t="n">
-        <v>113.8250040201003</v>
+        <v>71.29711915503223</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>57.31677193285137</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28296,25 +28296,25 @@
         <v>162.2349980398472</v>
       </c>
       <c r="S13" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="T13" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="U13" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="V13" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="W13" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="X13" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576635</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="C14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="D14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="E14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="F14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="G14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="H14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="I14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>107.1052903194584</v>
       </c>
       <c r="S14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="T14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="U14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="V14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="W14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="X14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
     </row>
     <row r="15">
@@ -28415,13 +28415,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>135.7272597341965</v>
       </c>
       <c r="H15" t="n">
-        <v>31.90027925509254</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I15" t="n">
         <v>76.31402067538701</v>
@@ -28454,25 +28454,25 @@
         <v>76.32009000103538</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T15" t="n">
-        <v>180.0944976576637</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>180.0944976576637</v>
+        <v>126.5189974860678</v>
       </c>
       <c r="V15" t="n">
-        <v>180.0944976576637</v>
+        <v>31.08982191855765</v>
       </c>
       <c r="W15" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="X15" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="Y15" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
     </row>
     <row r="16">
@@ -28509,7 +28509,7 @@
         <v>71.29711915503223</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>88.40570307599515</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>88.40570307599404</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28533,25 +28533,25 @@
         <v>162.2349980398472</v>
       </c>
       <c r="S16" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="T16" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="U16" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="V16" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="W16" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="X16" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.0944976576637</v>
+        <v>180.0944976576636</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="C17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="D17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="E17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="F17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="G17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="H17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="I17" t="n">
         <v>183.8997758062031</v>
@@ -28621,16 +28621,16 @@
         <v>251.4335132019914</v>
       </c>
       <c r="V17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="W17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="X17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.1611749367527</v>
+        <v>300.1611749367524</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -28649,7 +28649,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>107.6042570273855</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,25 +28691,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>81.90460219753474</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T18" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U18" t="n">
-        <v>23.81879752039066</v>
+        <v>224.6377066414877</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>194.621499045701</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>49.17043762890256</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.852242297488999</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -28728,7 +28728,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -28743,7 +28743,7 @@
         <v>146.2970540809003</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>71.29711915503223</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>162.2349980398472</v>
       </c>
       <c r="S19" t="n">
-        <v>218.0334403539447</v>
+        <v>17.21453123284718</v>
       </c>
       <c r="T19" t="n">
         <v>227.2723385499247</v>
@@ -28785,10 +28785,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>59.00470473427652</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.06585287686931</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="C20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="D20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="E20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="F20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="G20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="H20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="I20" t="n">
         <v>183.8997758062031</v>
@@ -28858,16 +28858,16 @@
         <v>251.4335132019914</v>
       </c>
       <c r="V20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="W20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="X20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
     </row>
     <row r="21">
@@ -28880,19 +28880,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>102.9022669396096</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>107.6042570273855</v>
@@ -28928,25 +28928,25 @@
         <v>76.32009000103538</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T21" t="n">
-        <v>197.1896438262193</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6377066414877</v>
+        <v>23.81879752039021</v>
       </c>
       <c r="V21" t="n">
-        <v>31.0898219185581</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>49.17043762890302</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>101.5751736664937</v>
       </c>
     </row>
     <row r="22">
@@ -28974,13 +28974,13 @@
         <v>167.6414739969716</v>
       </c>
       <c r="H22" t="n">
-        <v>83.99011518117553</v>
+        <v>159.4281046943037</v>
       </c>
       <c r="I22" t="n">
         <v>146.2970540809003</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>71.29711915503223</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>58.98445761112272</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>162.2349980398472</v>
       </c>
       <c r="S22" t="n">
-        <v>218.0334403539447</v>
+        <v>17.21453123284718</v>
       </c>
       <c r="T22" t="n">
         <v>227.2723385499247</v>
@@ -29025,7 +29025,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>51.61301866973548</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="C23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="D23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="E23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="F23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="G23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="H23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="I23" t="n">
         <v>183.8997758062031</v>
@@ -29095,16 +29095,16 @@
         <v>251.4335132019914</v>
       </c>
       <c r="V23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="W23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="X23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.1611749367526</v>
+        <v>300.1611749367524</v>
       </c>
     </row>
     <row r="24">
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -29165,7 +29165,7 @@
         <v>76.32009000103538</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T24" t="n">
         <v>197.1896438262193</v>
@@ -29174,16 +29174,16 @@
         <v>224.6377066414877</v>
       </c>
       <c r="V24" t="n">
-        <v>128.3386305411119</v>
+        <v>55.02743588579256</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>49.17043762890256</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>3.642720487380785</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.852242297489113</v>
+        <v>2.852242297488544</v>
       </c>
     </row>
     <row r="25">
@@ -29196,7 +29196,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>91.89856341807415</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
@@ -29217,7 +29217,7 @@
         <v>146.2970540809003</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>71.29711915503223</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>58.98445761112272</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>162.2349980398472</v>
       </c>
       <c r="S25" t="n">
         <v>218.0334403539447</v>
@@ -29250,10 +29250,10 @@
         <v>227.2723385499247</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0387368492568</v>
+        <v>118.9030816512241</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>52.11744194584168</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="C26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="D26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="E26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="G26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="H26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="I26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="J26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="K26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="L26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="M26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="N26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="O26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="P26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="R26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="S26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="T26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="U26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="V26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="W26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="X26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Y26" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
     </row>
     <row r="27">
@@ -29360,19 +29360,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>13.10761146413128</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>140.6805920431035</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>135.7272597341965</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>76.32009000103538</v>
       </c>
       <c r="S27" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="T27" t="n">
-        <v>140.6805920431035</v>
+        <v>34.23042784653103</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="C28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="D28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="E28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="G28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="H28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="I28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6805920431035</v>
+        <v>71.29711915503223</v>
       </c>
       <c r="K28" t="n">
-        <v>140.6805920431035</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>99.72891355262669</v>
+        <v>28.43179439759753</v>
       </c>
       <c r="M28" t="n">
-        <v>140.6805920431035</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Q28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="R28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="S28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="T28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="U28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="V28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="W28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="X28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="C29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="D29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="E29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="G29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="H29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="I29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="J29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="K29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="L29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="M29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="N29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="O29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="P29" t="n">
-        <v>140.6805920430992</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Q29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431035</v>
       </c>
       <c r="R29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="S29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="T29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="U29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="V29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="W29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="X29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Y29" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>29.27709553762392</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>76.32009000103538</v>
       </c>
       <c r="S30" t="n">
-        <v>140.6805920431036</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>140.6805920431036</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>13.10761146413071</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,40 +29667,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="C31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="D31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="E31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="G31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="H31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="I31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="K31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="L31" t="n">
-        <v>140.6805920431036</v>
+        <v>99.72891355262962</v>
       </c>
       <c r="M31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>99.72891355262553</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="R31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="S31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="T31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="U31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="V31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="W31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="X31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.6805920431036</v>
+        <v>140.6805920431034</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="C32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="D32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="E32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="G32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="H32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="I32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="J32" t="n">
-        <v>140.6805920431004</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="K32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.680592043103</v>
       </c>
       <c r="L32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="M32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="N32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="O32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="P32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Q32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="R32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="S32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="T32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="U32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="V32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="W32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="X32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Y32" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
     </row>
     <row r="33">
@@ -29834,10 +29834,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F33" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="G33" t="n">
         <v>135.7272597341965</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>76.32009000103538</v>
       </c>
       <c r="S33" t="n">
-        <v>13.10761146413137</v>
+        <v>1.154092830812743</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>140.6805920431035</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="C34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="D34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="E34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="G34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="H34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="I34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="J34" t="n">
-        <v>71.29711915503223</v>
+        <v>99.72891355262963</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>110.1279288295753</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>140.6805920431035</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="P34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.98445761112272</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="R34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="S34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="T34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="U34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="V34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="W34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="X34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.6805920431035</v>
+        <v>140.6805920431034</v>
       </c>
     </row>
     <row r="35">
@@ -30004,34 +30004,34 @@
         <v>193.2605090969645</v>
       </c>
       <c r="I35" t="n">
-        <v>183.8997758062031</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>193.2605090969645</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>170.5977878051412</v>
+        <v>75.08183573687407</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1052903194584</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="S35" t="n">
         <v>193.2605090969645</v>
@@ -30065,13 +30065,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>97.97039714685016</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>36.46027163567817</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30153,7 +30153,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>140.6433709194811</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>167.6414739969716</v>
@@ -30165,7 +30165,7 @@
         <v>146.2970540809003</v>
       </c>
       <c r="J37" t="n">
-        <v>71.29711915503223</v>
+        <v>65.78146866470834</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>193.2605090969645</v>
       </c>
       <c r="I38" t="n">
-        <v>183.8997758062031</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,13 +30262,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>170.5977878051411</v>
+        <v>75.08183573687347</v>
       </c>
       <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>193.2605090969645</v>
-      </c>
-      <c r="R38" t="n">
-        <v>107.1052903194584</v>
       </c>
       <c r="S38" t="n">
         <v>193.2605090969645</v>
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.73776461791644</v>
       </c>
       <c r="I39" t="n">
-        <v>60.74332175705969</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>174.5680410003599</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30435,7 +30435,7 @@
         <v>193.2605090969645</v>
       </c>
       <c r="U40" t="n">
-        <v>187.7448586066411</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="V40" t="n">
         <v>193.2605090969645</v>
@@ -30478,13 +30478,13 @@
         <v>193.2605090969645</v>
       </c>
       <c r="I41" t="n">
-        <v>183.8997758062031</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="J41" t="n">
-        <v>84.44256902763561</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>75.08183573687398</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30554,10 +30554,10 @@
         <v>135.7272597341965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.31402067538701</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>76.32009000103538</v>
       </c>
       <c r="S42" t="n">
         <v>163.4644637125223</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>53.20637441080618</v>
       </c>
       <c r="U42" t="n">
-        <v>120.1842330176496</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30627,7 +30627,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>140.6433709194806</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>167.6414739969716</v>
@@ -30669,7 +30669,7 @@
         <v>193.2605090969645</v>
       </c>
       <c r="T43" t="n">
-        <v>193.2605090969645</v>
+        <v>187.7448586066406</v>
       </c>
       <c r="U43" t="n">
         <v>193.2605090969645</v>
@@ -30715,10 +30715,10 @@
         <v>193.2605090969645</v>
       </c>
       <c r="I44" t="n">
-        <v>183.8997758062031</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="J44" t="n">
-        <v>84.44256902763581</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,16 +30727,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>75.08183573687421</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>193.2605090969645</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30776,19 +30776,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>94.22207089298891</v>
       </c>
       <c r="H45" t="n">
         <v>107.6042570273855</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.23203364625992</v>
+        <v>76.3200900010354</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>174.5680410003605</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.46880712079946</v>
+        <v>58.98445761112272</v>
       </c>
       <c r="R46" t="n">
         <v>162.2349980398472</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5531296819122219</v>
+        <v>0.5531296819122218</v>
       </c>
       <c r="H11" t="n">
-        <v>5.664739354883544</v>
+        <v>5.664739354883543</v>
       </c>
       <c r="I11" t="n">
-        <v>21.32453206192096</v>
+        <v>21.32453206192095</v>
       </c>
       <c r="J11" t="n">
         <v>46.94619034019748</v>
       </c>
       <c r="K11" t="n">
-        <v>70.36016977554185</v>
+        <v>70.36016977554183</v>
       </c>
       <c r="L11" t="n">
-        <v>87.28801227836303</v>
+        <v>87.28801227836301</v>
       </c>
       <c r="M11" t="n">
-        <v>97.1247322590695</v>
+        <v>97.12473225906948</v>
       </c>
       <c r="N11" t="n">
-        <v>98.69631196780261</v>
+        <v>98.69631196780259</v>
       </c>
       <c r="O11" t="n">
-        <v>93.19612869328795</v>
+        <v>93.19612869328793</v>
       </c>
       <c r="P11" t="n">
-        <v>79.54073967107996</v>
+        <v>79.54073967107995</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.73178293759849</v>
+        <v>59.73178293759848</v>
       </c>
       <c r="R11" t="n">
-        <v>34.74553238141864</v>
+        <v>34.74553238141863</v>
       </c>
       <c r="S11" t="n">
         <v>12.60444262657477</v>
       </c>
       <c r="T11" t="n">
-        <v>2.421325182570753</v>
+        <v>2.421325182570752</v>
       </c>
       <c r="U11" t="n">
         <v>0.04425037455297774</v>
@@ -31832,43 +31832,43 @@
         <v>0.2959504708457706</v>
       </c>
       <c r="H12" t="n">
-        <v>2.858258494747312</v>
+        <v>2.858258494747311</v>
       </c>
       <c r="I12" t="n">
         <v>10.18952279008465</v>
       </c>
       <c r="J12" t="n">
-        <v>27.96082935302082</v>
+        <v>27.96082935302081</v>
       </c>
       <c r="K12" t="n">
-        <v>47.78951089968745</v>
+        <v>47.78951089968744</v>
       </c>
       <c r="L12" t="n">
-        <v>64.25889499657841</v>
+        <v>64.25889499657839</v>
       </c>
       <c r="M12" t="n">
-        <v>74.98709956473758</v>
+        <v>74.98709956473756</v>
       </c>
       <c r="N12" t="n">
-        <v>76.97178495913752</v>
+        <v>76.97178495913751</v>
       </c>
       <c r="O12" t="n">
-        <v>70.41414557881807</v>
+        <v>70.41414557881805</v>
       </c>
       <c r="P12" t="n">
-        <v>56.51355964773317</v>
+        <v>56.51355964773316</v>
       </c>
       <c r="Q12" t="n">
         <v>37.77781799778644</v>
       </c>
       <c r="R12" t="n">
-        <v>18.37488976005584</v>
+        <v>18.37488976005583</v>
       </c>
       <c r="S12" t="n">
-        <v>5.497150193122096</v>
+        <v>5.497150193122095</v>
       </c>
       <c r="T12" t="n">
-        <v>1.1928880820494</v>
+        <v>1.192888082049399</v>
       </c>
       <c r="U12" t="n">
         <v>0.01947042571353755</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2481149331364456</v>
+        <v>0.2481149331364455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.205967314613127</v>
+        <v>2.205967314613126</v>
       </c>
       <c r="I13" t="n">
-        <v>7.461492716503293</v>
+        <v>7.461492716503292</v>
       </c>
       <c r="J13" t="n">
         <v>17.5417257727467</v>
       </c>
       <c r="K13" t="n">
-        <v>28.82644404985249</v>
+        <v>28.82644404985248</v>
       </c>
       <c r="L13" t="n">
         <v>36.88792378648574</v>
       </c>
       <c r="M13" t="n">
-        <v>38.89314356428846</v>
+        <v>38.89314356428845</v>
       </c>
       <c r="N13" t="n">
-        <v>37.96835154077992</v>
+        <v>37.96835154077991</v>
       </c>
       <c r="O13" t="n">
-        <v>35.06991800368598</v>
+        <v>35.06991800368597</v>
       </c>
       <c r="P13" t="n">
-        <v>30.00837336770246</v>
+        <v>30.00837336770245</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.77624226472546</v>
+        <v>20.77624226472545</v>
       </c>
       <c r="R13" t="n">
-        <v>11.15614962993509</v>
+        <v>11.15614962993508</v>
       </c>
       <c r="S13" t="n">
-        <v>4.323966607477873</v>
+        <v>4.323966607477872</v>
       </c>
       <c r="T13" t="n">
         <v>1.060127441582994</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5531296819122219</v>
+        <v>0.5531296819122218</v>
       </c>
       <c r="H14" t="n">
-        <v>5.664739354883544</v>
+        <v>5.664739354883543</v>
       </c>
       <c r="I14" t="n">
-        <v>21.32453206192096</v>
+        <v>21.32453206192095</v>
       </c>
       <c r="J14" t="n">
         <v>46.94619034019748</v>
       </c>
       <c r="K14" t="n">
-        <v>70.36016977554185</v>
+        <v>70.36016977554183</v>
       </c>
       <c r="L14" t="n">
-        <v>87.28801227836303</v>
+        <v>87.28801227836301</v>
       </c>
       <c r="M14" t="n">
-        <v>97.1247322590695</v>
+        <v>97.12473225906948</v>
       </c>
       <c r="N14" t="n">
-        <v>98.69631196780261</v>
+        <v>98.69631196780259</v>
       </c>
       <c r="O14" t="n">
-        <v>93.19612869328795</v>
+        <v>93.19612869328793</v>
       </c>
       <c r="P14" t="n">
-        <v>79.54073967107996</v>
+        <v>79.54073967107995</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.73178293759849</v>
+        <v>59.73178293759848</v>
       </c>
       <c r="R14" t="n">
-        <v>34.74553238141864</v>
+        <v>34.74553238141863</v>
       </c>
       <c r="S14" t="n">
         <v>12.60444262657477</v>
       </c>
       <c r="T14" t="n">
-        <v>2.421325182570753</v>
+        <v>2.421325182570752</v>
       </c>
       <c r="U14" t="n">
         <v>0.04425037455297774</v>
@@ -32069,43 +32069,43 @@
         <v>0.2959504708457706</v>
       </c>
       <c r="H15" t="n">
-        <v>2.858258494747312</v>
+        <v>2.858258494747311</v>
       </c>
       <c r="I15" t="n">
         <v>10.18952279008465</v>
       </c>
       <c r="J15" t="n">
-        <v>27.96082935302082</v>
+        <v>27.96082935302081</v>
       </c>
       <c r="K15" t="n">
-        <v>47.78951089968745</v>
+        <v>47.78951089968744</v>
       </c>
       <c r="L15" t="n">
-        <v>64.25889499657841</v>
+        <v>64.25889499657839</v>
       </c>
       <c r="M15" t="n">
-        <v>74.98709956473758</v>
+        <v>74.98709956473756</v>
       </c>
       <c r="N15" t="n">
-        <v>76.97178495913752</v>
+        <v>76.97178495913751</v>
       </c>
       <c r="O15" t="n">
-        <v>70.41414557881807</v>
+        <v>70.41414557881805</v>
       </c>
       <c r="P15" t="n">
-        <v>56.51355964773317</v>
+        <v>56.51355964773316</v>
       </c>
       <c r="Q15" t="n">
         <v>37.77781799778644</v>
       </c>
       <c r="R15" t="n">
-        <v>18.37488976005584</v>
+        <v>18.37488976005583</v>
       </c>
       <c r="S15" t="n">
-        <v>5.497150193122096</v>
+        <v>5.497150193122095</v>
       </c>
       <c r="T15" t="n">
-        <v>1.1928880820494</v>
+        <v>1.192888082049399</v>
       </c>
       <c r="U15" t="n">
         <v>0.01947042571353755</v>
@@ -32145,43 +32145,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2481149331364456</v>
+        <v>0.2481149331364455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.205967314613127</v>
+        <v>2.205967314613126</v>
       </c>
       <c r="I16" t="n">
-        <v>7.461492716503293</v>
+        <v>7.461492716503292</v>
       </c>
       <c r="J16" t="n">
         <v>17.5417257727467</v>
       </c>
       <c r="K16" t="n">
-        <v>28.82644404985249</v>
+        <v>28.82644404985248</v>
       </c>
       <c r="L16" t="n">
         <v>36.88792378648574</v>
       </c>
       <c r="M16" t="n">
-        <v>38.89314356428846</v>
+        <v>38.89314356428845</v>
       </c>
       <c r="N16" t="n">
-        <v>37.96835154077992</v>
+        <v>37.96835154077991</v>
       </c>
       <c r="O16" t="n">
-        <v>35.06991800368598</v>
+        <v>35.06991800368597</v>
       </c>
       <c r="P16" t="n">
-        <v>30.00837336770246</v>
+        <v>30.00837336770245</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.77624226472546</v>
+        <v>20.77624226472545</v>
       </c>
       <c r="R16" t="n">
-        <v>11.15614962993509</v>
+        <v>11.15614962993508</v>
       </c>
       <c r="S16" t="n">
-        <v>4.323966607477873</v>
+        <v>4.323966607477872</v>
       </c>
       <c r="T16" t="n">
         <v>1.060127441582994</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5531296819122219</v>
+        <v>0.5531296819122218</v>
       </c>
       <c r="H17" t="n">
-        <v>5.664739354883544</v>
+        <v>5.664739354883543</v>
       </c>
       <c r="I17" t="n">
-        <v>21.32453206192096</v>
+        <v>21.32453206192095</v>
       </c>
       <c r="J17" t="n">
         <v>46.94619034019748</v>
       </c>
       <c r="K17" t="n">
-        <v>70.36016977554185</v>
+        <v>70.36016977554183</v>
       </c>
       <c r="L17" t="n">
-        <v>87.28801227836303</v>
+        <v>87.28801227836301</v>
       </c>
       <c r="M17" t="n">
-        <v>97.1247322590695</v>
+        <v>97.12473225906948</v>
       </c>
       <c r="N17" t="n">
-        <v>98.69631196780261</v>
+        <v>98.69631196780259</v>
       </c>
       <c r="O17" t="n">
-        <v>93.19612869328795</v>
+        <v>93.19612869328793</v>
       </c>
       <c r="P17" t="n">
-        <v>79.54073967107996</v>
+        <v>79.54073967107995</v>
       </c>
       <c r="Q17" t="n">
-        <v>59.73178293759849</v>
+        <v>59.73178293759848</v>
       </c>
       <c r="R17" t="n">
-        <v>34.74553238141864</v>
+        <v>34.74553238141863</v>
       </c>
       <c r="S17" t="n">
         <v>12.60444262657477</v>
       </c>
       <c r="T17" t="n">
-        <v>2.421325182570753</v>
+        <v>2.421325182570752</v>
       </c>
       <c r="U17" t="n">
         <v>0.04425037455297774</v>
@@ -32306,43 +32306,43 @@
         <v>0.2959504708457706</v>
       </c>
       <c r="H18" t="n">
-        <v>2.858258494747312</v>
+        <v>2.858258494747311</v>
       </c>
       <c r="I18" t="n">
         <v>10.18952279008465</v>
       </c>
       <c r="J18" t="n">
-        <v>27.96082935302082</v>
+        <v>27.96082935302081</v>
       </c>
       <c r="K18" t="n">
-        <v>47.78951089968745</v>
+        <v>47.78951089968744</v>
       </c>
       <c r="L18" t="n">
-        <v>64.25889499657841</v>
+        <v>64.25889499657839</v>
       </c>
       <c r="M18" t="n">
-        <v>74.98709956473758</v>
+        <v>74.98709956473756</v>
       </c>
       <c r="N18" t="n">
-        <v>76.97178495913752</v>
+        <v>76.97178495913751</v>
       </c>
       <c r="O18" t="n">
-        <v>70.41414557881807</v>
+        <v>70.41414557881805</v>
       </c>
       <c r="P18" t="n">
-        <v>56.51355964773317</v>
+        <v>56.51355964773316</v>
       </c>
       <c r="Q18" t="n">
         <v>37.77781799778644</v>
       </c>
       <c r="R18" t="n">
-        <v>18.37488976005584</v>
+        <v>18.37488976005583</v>
       </c>
       <c r="S18" t="n">
-        <v>5.497150193122096</v>
+        <v>5.497150193122095</v>
       </c>
       <c r="T18" t="n">
-        <v>1.1928880820494</v>
+        <v>1.192888082049399</v>
       </c>
       <c r="U18" t="n">
         <v>0.01947042571353755</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2481149331364456</v>
+        <v>0.2481149331364455</v>
       </c>
       <c r="H19" t="n">
-        <v>2.205967314613127</v>
+        <v>2.205967314613126</v>
       </c>
       <c r="I19" t="n">
-        <v>7.461492716503293</v>
+        <v>7.461492716503292</v>
       </c>
       <c r="J19" t="n">
         <v>17.5417257727467</v>
       </c>
       <c r="K19" t="n">
-        <v>28.82644404985249</v>
+        <v>28.82644404985248</v>
       </c>
       <c r="L19" t="n">
         <v>36.88792378648574</v>
       </c>
       <c r="M19" t="n">
-        <v>38.89314356428846</v>
+        <v>38.89314356428845</v>
       </c>
       <c r="N19" t="n">
-        <v>37.96835154077992</v>
+        <v>37.96835154077991</v>
       </c>
       <c r="O19" t="n">
-        <v>35.06991800368598</v>
+        <v>35.06991800368597</v>
       </c>
       <c r="P19" t="n">
-        <v>30.00837336770246</v>
+        <v>30.00837336770245</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.77624226472546</v>
+        <v>20.77624226472545</v>
       </c>
       <c r="R19" t="n">
-        <v>11.15614962993509</v>
+        <v>11.15614962993508</v>
       </c>
       <c r="S19" t="n">
-        <v>4.323966607477873</v>
+        <v>4.323966607477872</v>
       </c>
       <c r="T19" t="n">
         <v>1.060127441582994</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5531296819122219</v>
+        <v>0.5531296819122218</v>
       </c>
       <c r="H20" t="n">
-        <v>5.664739354883544</v>
+        <v>5.664739354883543</v>
       </c>
       <c r="I20" t="n">
-        <v>21.32453206192096</v>
+        <v>21.32453206192095</v>
       </c>
       <c r="J20" t="n">
         <v>46.94619034019748</v>
       </c>
       <c r="K20" t="n">
-        <v>70.36016977554185</v>
+        <v>70.36016977554183</v>
       </c>
       <c r="L20" t="n">
-        <v>87.28801227836303</v>
+        <v>87.28801227836301</v>
       </c>
       <c r="M20" t="n">
-        <v>97.1247322590695</v>
+        <v>97.12473225906948</v>
       </c>
       <c r="N20" t="n">
-        <v>98.69631196780261</v>
+        <v>98.69631196780259</v>
       </c>
       <c r="O20" t="n">
-        <v>93.19612869328795</v>
+        <v>93.19612869328793</v>
       </c>
       <c r="P20" t="n">
-        <v>79.54073967107996</v>
+        <v>79.54073967107995</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.73178293759849</v>
+        <v>59.73178293759848</v>
       </c>
       <c r="R20" t="n">
-        <v>34.74553238141864</v>
+        <v>34.74553238141863</v>
       </c>
       <c r="S20" t="n">
         <v>12.60444262657477</v>
       </c>
       <c r="T20" t="n">
-        <v>2.421325182570753</v>
+        <v>2.421325182570752</v>
       </c>
       <c r="U20" t="n">
         <v>0.04425037455297774</v>
@@ -32543,43 +32543,43 @@
         <v>0.2959504708457706</v>
       </c>
       <c r="H21" t="n">
-        <v>2.858258494747312</v>
+        <v>2.858258494747311</v>
       </c>
       <c r="I21" t="n">
         <v>10.18952279008465</v>
       </c>
       <c r="J21" t="n">
-        <v>27.96082935302082</v>
+        <v>27.96082935302081</v>
       </c>
       <c r="K21" t="n">
-        <v>47.78951089968745</v>
+        <v>47.78951089968744</v>
       </c>
       <c r="L21" t="n">
-        <v>64.25889499657841</v>
+        <v>64.25889499657839</v>
       </c>
       <c r="M21" t="n">
-        <v>74.98709956473758</v>
+        <v>74.98709956473756</v>
       </c>
       <c r="N21" t="n">
-        <v>76.97178495913752</v>
+        <v>76.97178495913751</v>
       </c>
       <c r="O21" t="n">
-        <v>70.41414557881807</v>
+        <v>70.41414557881805</v>
       </c>
       <c r="P21" t="n">
-        <v>56.51355964773317</v>
+        <v>56.51355964773316</v>
       </c>
       <c r="Q21" t="n">
         <v>37.77781799778644</v>
       </c>
       <c r="R21" t="n">
-        <v>18.37488976005584</v>
+        <v>18.37488976005583</v>
       </c>
       <c r="S21" t="n">
-        <v>5.497150193122096</v>
+        <v>5.497150193122095</v>
       </c>
       <c r="T21" t="n">
-        <v>1.1928880820494</v>
+        <v>1.192888082049399</v>
       </c>
       <c r="U21" t="n">
         <v>0.01947042571353755</v>
@@ -32619,43 +32619,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2481149331364456</v>
+        <v>0.2481149331364455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.205967314613127</v>
+        <v>2.205967314613126</v>
       </c>
       <c r="I22" t="n">
-        <v>7.461492716503293</v>
+        <v>7.461492716503292</v>
       </c>
       <c r="J22" t="n">
         <v>17.5417257727467</v>
       </c>
       <c r="K22" t="n">
-        <v>28.82644404985249</v>
+        <v>28.82644404985248</v>
       </c>
       <c r="L22" t="n">
         <v>36.88792378648574</v>
       </c>
       <c r="M22" t="n">
-        <v>38.89314356428846</v>
+        <v>38.89314356428845</v>
       </c>
       <c r="N22" t="n">
-        <v>37.96835154077992</v>
+        <v>37.96835154077991</v>
       </c>
       <c r="O22" t="n">
-        <v>35.06991800368598</v>
+        <v>35.06991800368597</v>
       </c>
       <c r="P22" t="n">
-        <v>30.00837336770246</v>
+        <v>30.00837336770245</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.77624226472546</v>
+        <v>20.77624226472545</v>
       </c>
       <c r="R22" t="n">
-        <v>11.15614962993509</v>
+        <v>11.15614962993508</v>
       </c>
       <c r="S22" t="n">
-        <v>4.323966607477873</v>
+        <v>4.323966607477872</v>
       </c>
       <c r="T22" t="n">
         <v>1.060127441582994</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5531296819122219</v>
+        <v>0.5531296819122218</v>
       </c>
       <c r="H23" t="n">
-        <v>5.664739354883544</v>
+        <v>5.664739354883543</v>
       </c>
       <c r="I23" t="n">
-        <v>21.32453206192096</v>
+        <v>21.32453206192095</v>
       </c>
       <c r="J23" t="n">
         <v>46.94619034019748</v>
       </c>
       <c r="K23" t="n">
-        <v>70.36016977554185</v>
+        <v>70.36016977554183</v>
       </c>
       <c r="L23" t="n">
-        <v>87.28801227836303</v>
+        <v>87.28801227836301</v>
       </c>
       <c r="M23" t="n">
-        <v>97.1247322590695</v>
+        <v>97.12473225906948</v>
       </c>
       <c r="N23" t="n">
-        <v>98.69631196780261</v>
+        <v>98.69631196780259</v>
       </c>
       <c r="O23" t="n">
-        <v>93.19612869328795</v>
+        <v>93.19612869328793</v>
       </c>
       <c r="P23" t="n">
-        <v>79.54073967107996</v>
+        <v>79.54073967107995</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.73178293759849</v>
+        <v>59.73178293759848</v>
       </c>
       <c r="R23" t="n">
-        <v>34.74553238141864</v>
+        <v>34.74553238141863</v>
       </c>
       <c r="S23" t="n">
         <v>12.60444262657477</v>
       </c>
       <c r="T23" t="n">
-        <v>2.421325182570753</v>
+        <v>2.421325182570752</v>
       </c>
       <c r="U23" t="n">
         <v>0.04425037455297774</v>
@@ -32780,43 +32780,43 @@
         <v>0.2959504708457706</v>
       </c>
       <c r="H24" t="n">
-        <v>2.858258494747312</v>
+        <v>2.858258494747311</v>
       </c>
       <c r="I24" t="n">
         <v>10.18952279008465</v>
       </c>
       <c r="J24" t="n">
-        <v>27.96082935302082</v>
+        <v>27.96082935302081</v>
       </c>
       <c r="K24" t="n">
-        <v>47.78951089968745</v>
+        <v>47.78951089968744</v>
       </c>
       <c r="L24" t="n">
-        <v>64.25889499657841</v>
+        <v>64.25889499657839</v>
       </c>
       <c r="M24" t="n">
-        <v>74.98709956473758</v>
+        <v>74.98709956473756</v>
       </c>
       <c r="N24" t="n">
-        <v>76.97178495913752</v>
+        <v>76.97178495913751</v>
       </c>
       <c r="O24" t="n">
-        <v>70.41414557881807</v>
+        <v>70.41414557881805</v>
       </c>
       <c r="P24" t="n">
-        <v>56.51355964773317</v>
+        <v>56.51355964773316</v>
       </c>
       <c r="Q24" t="n">
         <v>37.77781799778644</v>
       </c>
       <c r="R24" t="n">
-        <v>18.37488976005584</v>
+        <v>18.37488976005583</v>
       </c>
       <c r="S24" t="n">
-        <v>5.497150193122096</v>
+        <v>5.497150193122095</v>
       </c>
       <c r="T24" t="n">
-        <v>1.1928880820494</v>
+        <v>1.192888082049399</v>
       </c>
       <c r="U24" t="n">
         <v>0.01947042571353755</v>
@@ -32856,43 +32856,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2481149331364456</v>
+        <v>0.2481149331364455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.205967314613127</v>
+        <v>2.205967314613126</v>
       </c>
       <c r="I25" t="n">
-        <v>7.461492716503293</v>
+        <v>7.461492716503292</v>
       </c>
       <c r="J25" t="n">
         <v>17.5417257727467</v>
       </c>
       <c r="K25" t="n">
-        <v>28.82644404985249</v>
+        <v>28.82644404985248</v>
       </c>
       <c r="L25" t="n">
         <v>36.88792378648574</v>
       </c>
       <c r="M25" t="n">
-        <v>38.89314356428846</v>
+        <v>38.89314356428845</v>
       </c>
       <c r="N25" t="n">
-        <v>37.96835154077992</v>
+        <v>37.96835154077991</v>
       </c>
       <c r="O25" t="n">
-        <v>35.06991800368598</v>
+        <v>35.06991800368597</v>
       </c>
       <c r="P25" t="n">
-        <v>30.00837336770246</v>
+        <v>30.00837336770245</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.77624226472546</v>
+        <v>20.77624226472545</v>
       </c>
       <c r="R25" t="n">
-        <v>11.15614962993509</v>
+        <v>11.15614962993508</v>
       </c>
       <c r="S25" t="n">
-        <v>4.323966607477873</v>
+        <v>4.323966607477872</v>
       </c>
       <c r="T25" t="n">
         <v>1.060127441582994</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5531296819122219</v>
+        <v>0.5531296819122218</v>
       </c>
       <c r="H26" t="n">
-        <v>5.664739354883544</v>
+        <v>5.664739354883543</v>
       </c>
       <c r="I26" t="n">
-        <v>21.32453206192096</v>
+        <v>21.32453206192095</v>
       </c>
       <c r="J26" t="n">
         <v>46.94619034019748</v>
       </c>
       <c r="K26" t="n">
-        <v>70.36016977554185</v>
+        <v>70.36016977554183</v>
       </c>
       <c r="L26" t="n">
-        <v>87.28801227836303</v>
+        <v>87.28801227836301</v>
       </c>
       <c r="M26" t="n">
-        <v>97.1247322590695</v>
+        <v>97.12473225906948</v>
       </c>
       <c r="N26" t="n">
-        <v>98.69631196780261</v>
+        <v>98.69631196780259</v>
       </c>
       <c r="O26" t="n">
-        <v>93.19612869328795</v>
+        <v>93.19612869328793</v>
       </c>
       <c r="P26" t="n">
-        <v>79.54073967107996</v>
+        <v>79.54073967107995</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.73178293759849</v>
+        <v>59.73178293759848</v>
       </c>
       <c r="R26" t="n">
-        <v>34.74553238141864</v>
+        <v>34.74553238141863</v>
       </c>
       <c r="S26" t="n">
         <v>12.60444262657477</v>
       </c>
       <c r="T26" t="n">
-        <v>2.421325182570753</v>
+        <v>2.421325182570752</v>
       </c>
       <c r="U26" t="n">
         <v>0.04425037455297774</v>
@@ -33017,43 +33017,43 @@
         <v>0.2959504708457706</v>
       </c>
       <c r="H27" t="n">
-        <v>2.858258494747312</v>
+        <v>2.858258494747311</v>
       </c>
       <c r="I27" t="n">
         <v>10.18952279008465</v>
       </c>
       <c r="J27" t="n">
-        <v>27.96082935302082</v>
+        <v>27.96082935302081</v>
       </c>
       <c r="K27" t="n">
-        <v>47.78951089968745</v>
+        <v>47.78951089968744</v>
       </c>
       <c r="L27" t="n">
-        <v>64.25889499657841</v>
+        <v>64.25889499657839</v>
       </c>
       <c r="M27" t="n">
-        <v>74.98709956473758</v>
+        <v>74.98709956473756</v>
       </c>
       <c r="N27" t="n">
-        <v>76.97178495913752</v>
+        <v>76.97178495913751</v>
       </c>
       <c r="O27" t="n">
-        <v>70.41414557881807</v>
+        <v>70.41414557881805</v>
       </c>
       <c r="P27" t="n">
-        <v>56.51355964773317</v>
+        <v>56.51355964773316</v>
       </c>
       <c r="Q27" t="n">
         <v>37.77781799778644</v>
       </c>
       <c r="R27" t="n">
-        <v>18.37488976005584</v>
+        <v>18.37488976005583</v>
       </c>
       <c r="S27" t="n">
-        <v>5.497150193122096</v>
+        <v>5.497150193122095</v>
       </c>
       <c r="T27" t="n">
-        <v>1.1928880820494</v>
+        <v>1.192888082049399</v>
       </c>
       <c r="U27" t="n">
         <v>0.01947042571353755</v>
@@ -33093,43 +33093,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2481149331364456</v>
+        <v>0.2481149331364455</v>
       </c>
       <c r="H28" t="n">
-        <v>2.205967314613127</v>
+        <v>2.205967314613126</v>
       </c>
       <c r="I28" t="n">
-        <v>7.461492716503293</v>
+        <v>7.461492716503292</v>
       </c>
       <c r="J28" t="n">
         <v>17.5417257727467</v>
       </c>
       <c r="K28" t="n">
-        <v>28.82644404985249</v>
+        <v>28.82644404985248</v>
       </c>
       <c r="L28" t="n">
         <v>36.88792378648574</v>
       </c>
       <c r="M28" t="n">
-        <v>38.89314356428846</v>
+        <v>38.89314356428845</v>
       </c>
       <c r="N28" t="n">
-        <v>37.96835154077992</v>
+        <v>37.96835154077991</v>
       </c>
       <c r="O28" t="n">
-        <v>35.06991800368598</v>
+        <v>35.06991800368597</v>
       </c>
       <c r="P28" t="n">
-        <v>30.00837336770246</v>
+        <v>30.00837336770245</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.77624226472546</v>
+        <v>20.77624226472545</v>
       </c>
       <c r="R28" t="n">
-        <v>11.15614962993509</v>
+        <v>11.15614962993508</v>
       </c>
       <c r="S28" t="n">
-        <v>4.323966607477873</v>
+        <v>4.323966607477872</v>
       </c>
       <c r="T28" t="n">
         <v>1.060127441582994</v>
@@ -35413,19 +35413,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>140.9733720198256</v>
       </c>
       <c r="N11" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="O11" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="P11" t="n">
-        <v>128.9136882067618</v>
+        <v>188.7592253080341</v>
       </c>
       <c r="Q11" t="n">
         <v>63.7913255963111</v>
@@ -35492,22 +35492,22 @@
         <v>188.4379543927692</v>
       </c>
       <c r="L12" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>49.8811809151572</v>
       </c>
       <c r="O12" t="n">
-        <v>169.6571484243547</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="P12" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>119.7759675091985</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35544,13 +35544,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.7579447264614</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.08893114314418</v>
       </c>
       <c r="E13" t="n">
-        <v>33.11987348446456</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.52788486506808</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.05203433201914</v>
+        <v>71.3688062648705</v>
       </c>
       <c r="L13" t="n">
         <v>74.34905401549503</v>
       </c>
       <c r="M13" t="n">
-        <v>89.09055156119703</v>
+        <v>89.09055156119702</v>
       </c>
       <c r="N13" t="n">
         <v>92.16537120541781</v>
       </c>
       <c r="O13" t="n">
-        <v>69.63812603365704</v>
+        <v>69.63812603365703</v>
       </c>
       <c r="P13" t="n">
-        <v>36.1303952663863</v>
+        <v>36.13039526638629</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>46.28691320563507</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>192.8837940806972</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>154.3532156378377</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="N14" t="n">
-        <v>200.818909121097</v>
+        <v>140.9733720198256</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>188.7592253080341</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>63.7913255963111</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>200.818909121097</v>
+        <v>37.50022618682888</v>
       </c>
       <c r="N15" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="O15" t="n">
-        <v>157.276193696027</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="P15" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>119.7759675091985</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.05203433201914</v>
+        <v>102.4577374080143</v>
       </c>
       <c r="L16" t="n">
         <v>74.34905401549503</v>
       </c>
       <c r="M16" t="n">
-        <v>89.09055156119703</v>
+        <v>89.09055156119702</v>
       </c>
       <c r="N16" t="n">
-        <v>180.5710742814119</v>
+        <v>92.16537120541781</v>
       </c>
       <c r="O16" t="n">
-        <v>69.63812603365704</v>
+        <v>69.63812603365703</v>
       </c>
       <c r="P16" t="n">
-        <v>36.1303952663863</v>
+        <v>36.13039526638629</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>46.28691320563507</v>
+        <v>46.28691320563506</v>
       </c>
       <c r="K17" t="n">
         <v>192.8837940806972</v>
       </c>
       <c r="L17" t="n">
-        <v>166.4128994509007</v>
+        <v>102.6215738545909</v>
       </c>
       <c r="M17" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="P17" t="n">
         <v>188.7592253080341</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>63.7913255963111</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>35.42882010704596</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.4379543927692</v>
       </c>
       <c r="L18" t="n">
-        <v>37.50022618682834</v>
+        <v>169.6571484243557</v>
       </c>
       <c r="M18" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="N18" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.7759675091985</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>14.05203433201914</v>
+        <v>14.05203433201913</v>
       </c>
       <c r="L19" t="n">
         <v>74.34905401549503</v>
       </c>
       <c r="M19" t="n">
-        <v>89.09055156119703</v>
+        <v>89.09055156119702</v>
       </c>
       <c r="N19" t="n">
         <v>92.16537120541781</v>
       </c>
       <c r="O19" t="n">
-        <v>69.63812603365704</v>
+        <v>69.63812603365703</v>
       </c>
       <c r="P19" t="n">
-        <v>36.1303952663863</v>
+        <v>36.13039526638629</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.28691320563507</v>
+        <v>46.28691320563506</v>
       </c>
       <c r="K20" t="n">
         <v>192.8837940806972</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>154.3532156378386</v>
       </c>
       <c r="N20" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="O20" t="n">
-        <v>102.6215738545895</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>188.7592253080341</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.7913255963111</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>192.7050138030733</v>
       </c>
       <c r="M21" t="n">
-        <v>200.818909121097</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="O21" t="n">
-        <v>192.7050138030729</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="P21" t="n">
-        <v>200.818909121097</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.05203433201914</v>
+        <v>14.05203433201913</v>
       </c>
       <c r="L22" t="n">
         <v>74.34905401549503</v>
       </c>
       <c r="M22" t="n">
-        <v>89.09055156119703</v>
+        <v>89.09055156119702</v>
       </c>
       <c r="N22" t="n">
         <v>92.16537120541781</v>
       </c>
       <c r="O22" t="n">
-        <v>69.63812603365704</v>
+        <v>69.63812603365703</v>
       </c>
       <c r="P22" t="n">
-        <v>36.1303952663863</v>
+        <v>36.13039526638629</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>192.7050138030728</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>200.8189091210969</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="M23" t="n">
-        <v>200.8189091210969</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>200.8189091210969</v>
+        <v>140.9733720198256</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>188.7592253080341</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>63.7913255963111</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>35.42882010704596</v>
       </c>
       <c r="K24" t="n">
-        <v>188.4379543927692</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="M24" t="n">
-        <v>49.88118091515594</v>
+        <v>157.2761936960273</v>
       </c>
       <c r="N24" t="n">
-        <v>200.8189091210969</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>200.8189091210969</v>
+        <v>200.8189091210975</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.7759675091985</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>14.05203433201914</v>
+        <v>14.05203433201913</v>
       </c>
       <c r="L25" t="n">
         <v>74.34905401549503</v>
       </c>
       <c r="M25" t="n">
-        <v>89.09055156119703</v>
+        <v>89.09055156119702</v>
       </c>
       <c r="N25" t="n">
         <v>92.16537120541781</v>
       </c>
       <c r="O25" t="n">
-        <v>69.63812603365704</v>
+        <v>69.63812603365703</v>
       </c>
       <c r="P25" t="n">
-        <v>36.1303952663863</v>
+        <v>36.13039526638629</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.9675052487386</v>
+        <v>186.9675052487384</v>
       </c>
       <c r="K26" t="n">
-        <v>333.5643861238007</v>
+        <v>333.5643861238005</v>
       </c>
       <c r="L26" t="n">
-        <v>432.4640128581974</v>
+        <v>432.4640128581972</v>
       </c>
       <c r="M26" t="n">
-        <v>480.7118217381279</v>
+        <v>480.7118217381278</v>
       </c>
       <c r="N26" t="n">
-        <v>470.5399683926935</v>
+        <v>470.5399683926933</v>
       </c>
       <c r="O26" t="n">
-        <v>405.563153113502</v>
+        <v>405.5631531135019</v>
       </c>
       <c r="P26" t="n">
-        <v>329.4398173511376</v>
+        <v>329.4398173511374</v>
       </c>
       <c r="Q26" t="n">
-        <v>204.4719176394146</v>
+        <v>204.4719176394145</v>
       </c>
       <c r="R26" t="n">
-        <v>33.57530172364507</v>
+        <v>33.57530172364491</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.38347288807127</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7326263751226</v>
+        <v>14.05203433201913</v>
       </c>
       <c r="L28" t="n">
-        <v>174.0779675681217</v>
+        <v>102.7808484130926</v>
       </c>
       <c r="M28" t="n">
-        <v>229.7711436043005</v>
+        <v>89.09055156119702</v>
       </c>
       <c r="N28" t="n">
-        <v>92.16537120541781</v>
+        <v>232.8459632485212</v>
       </c>
       <c r="O28" t="n">
-        <v>69.63812603365704</v>
+        <v>210.3187180767604</v>
       </c>
       <c r="P28" t="n">
-        <v>36.1303952663863</v>
+        <v>176.8109873094897</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.69613443198078</v>
+        <v>81.69613443198064</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.9675052487386</v>
+        <v>186.9675052487384</v>
       </c>
       <c r="K29" t="n">
-        <v>333.5643861238008</v>
+        <v>333.5643861238005</v>
       </c>
       <c r="L29" t="n">
-        <v>432.4640128581974</v>
+        <v>432.4640128581972</v>
       </c>
       <c r="M29" t="n">
-        <v>480.711821738128</v>
+        <v>480.7118217381278</v>
       </c>
       <c r="N29" t="n">
-        <v>470.5399683926935</v>
+        <v>470.5399683926933</v>
       </c>
       <c r="O29" t="n">
-        <v>405.5631531135022</v>
+        <v>405.5631531135019</v>
       </c>
       <c r="P29" t="n">
-        <v>329.4398173511333</v>
+        <v>329.4398173511374</v>
       </c>
       <c r="Q29" t="n">
-        <v>204.4719176394147</v>
+        <v>204.4719176394146</v>
       </c>
       <c r="R29" t="n">
-        <v>33.57530172364513</v>
+        <v>33.57530172364493</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.38347288807132</v>
+        <v>69.38347288807113</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7326263751227</v>
+        <v>154.7326263751225</v>
       </c>
       <c r="L31" t="n">
-        <v>215.0296460585986</v>
+        <v>174.0779675681246</v>
       </c>
       <c r="M31" t="n">
-        <v>229.7711436043006</v>
+        <v>229.7711436043004</v>
       </c>
       <c r="N31" t="n">
         <v>92.16537120541781</v>
@@ -37008,7 +37008,7 @@
         <v>36.1303952663863</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.74445594150281</v>
+        <v>81.69613443198064</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.9675052487354</v>
+        <v>186.9675052487384</v>
       </c>
       <c r="K32" t="n">
-        <v>333.5643861238007</v>
+        <v>333.5643861238001</v>
       </c>
       <c r="L32" t="n">
-        <v>432.4640128581974</v>
+        <v>432.4640128581972</v>
       </c>
       <c r="M32" t="n">
-        <v>480.7118217381279</v>
+        <v>480.7118217381278</v>
       </c>
       <c r="N32" t="n">
-        <v>470.5399683926934</v>
+        <v>470.5399683926933</v>
       </c>
       <c r="O32" t="n">
-        <v>405.563153113502</v>
+        <v>405.5631531135019</v>
       </c>
       <c r="P32" t="n">
-        <v>329.4398173511376</v>
+        <v>329.4398173511374</v>
       </c>
       <c r="Q32" t="n">
-        <v>204.4719176394146</v>
+        <v>204.4719176394145</v>
       </c>
       <c r="R32" t="n">
-        <v>33.57530172364507</v>
+        <v>33.57530172364493</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>28.4317943975974</v>
       </c>
       <c r="K34" t="n">
-        <v>14.05203433201914</v>
+        <v>154.7326263751225</v>
       </c>
       <c r="L34" t="n">
         <v>74.34905401549503</v>
       </c>
       <c r="M34" t="n">
-        <v>199.2184803907723</v>
+        <v>89.09055156119703</v>
       </c>
       <c r="N34" t="n">
-        <v>232.8459632485213</v>
+        <v>92.16537120541781</v>
       </c>
       <c r="O34" t="n">
-        <v>210.3187180767605</v>
+        <v>210.3187180767604</v>
       </c>
       <c r="P34" t="n">
-        <v>176.8109873094898</v>
+        <v>176.8109873094897</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>81.69613443198064</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>9.36073329076148</v>
       </c>
       <c r="J35" t="n">
-        <v>239.5474223025996</v>
+        <v>46.28691320563507</v>
       </c>
       <c r="K35" t="n">
         <v>192.8837940806972</v>
@@ -37318,16 +37318,16 @@
         <v>329.85937634959</v>
       </c>
       <c r="O35" t="n">
-        <v>264.8825610703985</v>
+        <v>458.1430701673631</v>
       </c>
       <c r="P35" t="n">
         <v>188.7592253080341</v>
       </c>
       <c r="Q35" t="n">
-        <v>234.3891134014523</v>
+        <v>138.8731613331852</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>86.15521877750611</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>35.42882010704596</v>
       </c>
       <c r="K36" t="n">
-        <v>188.4379543927692</v>
+        <v>145.8302426963152</v>
       </c>
       <c r="L36" t="n">
-        <v>272.2346221303441</v>
+        <v>314.8423338267986</v>
       </c>
       <c r="M36" t="n">
         <v>420.7396827907696</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.36073329076148</v>
       </c>
       <c r="J38" t="n">
         <v>46.28691320563507</v>
@@ -37546,7 +37546,7 @@
         <v>192.8837940806972</v>
       </c>
       <c r="L38" t="n">
-        <v>291.7834208150939</v>
+        <v>485.0439299120584</v>
       </c>
       <c r="M38" t="n">
         <v>340.0312296950244</v>
@@ -37558,13 +37558,13 @@
         <v>264.8825610703985</v>
       </c>
       <c r="P38" t="n">
-        <v>359.3570131131752</v>
+        <v>263.8410610449076</v>
       </c>
       <c r="Q38" t="n">
-        <v>257.0518346932756</v>
+        <v>63.7913255963111</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>86.15521877750611</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>35.42882010704596</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.4379543927692</v>
+        <v>181.2590628033607</v>
       </c>
       <c r="L39" t="n">
         <v>314.8423338267986</v>
       </c>
       <c r="M39" t="n">
-        <v>378.1319710943151</v>
+        <v>420.7396827907696</v>
       </c>
       <c r="N39" t="n">
         <v>447.4296849951832</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.36073329076148</v>
       </c>
       <c r="J41" t="n">
-        <v>130.7294822332707</v>
+        <v>239.5474223025996</v>
       </c>
       <c r="K41" t="n">
-        <v>192.8837940806972</v>
+        <v>267.9656298175711</v>
       </c>
       <c r="L41" t="n">
         <v>291.7834208150939</v>
@@ -37789,7 +37789,7 @@
         <v>340.0312296950244</v>
       </c>
       <c r="N41" t="n">
-        <v>523.1198854465545</v>
+        <v>329.85937634959</v>
       </c>
       <c r="O41" t="n">
         <v>264.8825610703985</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.42882010704596</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>188.4379543927692</v>
@@ -37865,7 +37865,7 @@
         <v>314.8423338267986</v>
       </c>
       <c r="M42" t="n">
-        <v>420.7396827907696</v>
+        <v>413.5607912013616</v>
       </c>
       <c r="N42" t="n">
         <v>447.4296849951832</v>
@@ -37877,7 +37877,7 @@
         <v>257.0897918042958</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.16825581274458</v>
+        <v>119.7759675091985</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.360733290761413</v>
       </c>
       <c r="J44" t="n">
-        <v>130.7294822332709</v>
+        <v>46.28691320563505</v>
       </c>
       <c r="K44" t="n">
         <v>192.8837940806972</v>
@@ -38023,16 +38023,16 @@
         <v>291.7834208150938</v>
       </c>
       <c r="M44" t="n">
-        <v>340.0312296950244</v>
+        <v>415.1130654318986</v>
       </c>
       <c r="N44" t="n">
         <v>329.8593763495899</v>
       </c>
       <c r="O44" t="n">
-        <v>458.143070167363</v>
+        <v>264.8825610703985</v>
       </c>
       <c r="P44" t="n">
-        <v>188.759225308034</v>
+        <v>382.0197344049985</v>
       </c>
       <c r="Q44" t="n">
         <v>63.79132559631108</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>35.42882010704596</v>
       </c>
       <c r="K45" t="n">
         <v>188.4379543927692</v>
@@ -38102,7 +38102,7 @@
         <v>314.8423338267986</v>
       </c>
       <c r="M45" t="n">
-        <v>420.7396827907696</v>
+        <v>378.1319710943159</v>
       </c>
       <c r="N45" t="n">
         <v>447.4296849951832</v>
@@ -38114,7 +38114,7 @@
         <v>257.0897918042958</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.5970759197909</v>
+        <v>119.7759675091985</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
